--- a/scenarios_results.xlsx
+++ b/scenarios_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q193"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +444,13 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,40 +501,45 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>reinforcement_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>As1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>As2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>actual_As1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>actual_As2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>num_rods_As1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>num_rods_As2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>fit_check</t>
         </is>
@@ -541,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B2" t="n">
         <v>450</v>
@@ -572,9 +578,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -584,13 +588,16 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="b">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B3" t="n">
         <v>450</v>
@@ -621,9 +628,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -633,13 +638,16 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="b">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B4" t="n">
         <v>450</v>
@@ -670,9 +678,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>0</v>
       </c>
@@ -682,13 +688,16 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="b">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B5" t="n">
         <v>450</v>
@@ -719,9 +728,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -731,13 +738,16 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="b">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B6" t="n">
         <v>450</v>
@@ -768,9 +778,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
       </c>
@@ -780,13 +788,16 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="b">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B7" t="n">
         <v>450</v>
@@ -817,9 +828,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0</v>
       </c>
@@ -829,13 +838,16 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="b">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B8" t="n">
         <v>450</v>
@@ -866,9 +878,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -878,13 +888,16 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="b">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B9" t="n">
         <v>450</v>
@@ -915,9 +928,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -927,13 +938,16 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="b">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B10" t="n">
         <v>450</v>
@@ -964,9 +978,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0</v>
       </c>
@@ -976,13 +988,16 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="b">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B11" t="n">
         <v>450</v>
@@ -1013,9 +1028,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1025,13 +1038,16 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="b">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B12" t="n">
         <v>450</v>
@@ -1062,9 +1078,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>0</v>
       </c>
@@ -1074,13 +1088,16 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="b">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B13" t="n">
         <v>450</v>
@@ -1111,9 +1128,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>0</v>
       </c>
@@ -1123,13 +1138,16 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="b">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B14" t="n">
         <v>450</v>
@@ -1160,9 +1178,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>0</v>
       </c>
@@ -1172,13 +1188,16 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="b">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B15" t="n">
         <v>450</v>
@@ -1209,9 +1228,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -1221,13 +1238,16 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="b">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B16" t="n">
         <v>450</v>
@@ -1258,9 +1278,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -1270,13 +1288,16 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="b">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B17" t="n">
         <v>450</v>
@@ -1307,9 +1328,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0</v>
       </c>
@@ -1319,13 +1338,16 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="b">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B18" t="n">
         <v>450</v>
@@ -1356,9 +1378,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>0</v>
       </c>
@@ -1368,13 +1388,16 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="b">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B19" t="n">
         <v>450</v>
@@ -1405,9 +1428,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -1417,13 +1438,16 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="b">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B20" t="n">
         <v>450</v>
@@ -1454,9 +1478,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0</v>
       </c>
@@ -1466,13 +1488,16 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="b">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B21" t="n">
         <v>450</v>
@@ -1503,9 +1528,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>0</v>
       </c>
@@ -1515,13 +1538,16 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="b">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B22" t="n">
         <v>450</v>
@@ -1552,9 +1578,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -1564,13 +1588,16 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="b">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B23" t="n">
         <v>450</v>
@@ -1601,9 +1628,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -1613,13 +1638,16 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="b">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B24" t="n">
         <v>450</v>
@@ -1650,9 +1678,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0</v>
       </c>
@@ -1662,13 +1688,16 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="b">
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B25" t="n">
         <v>450</v>
@@ -1699,9 +1728,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -1711,13 +1738,16 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="b">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B26" t="n">
         <v>450</v>
@@ -1745,34 +1775,29 @@
       <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>202.7563724517691</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3574.33177626008</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-7.491294152098275e-13</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="b">
-        <v>0</v>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B27" t="n">
         <v>450</v>
@@ -1800,34 +1825,29 @@
       <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="n">
-        <v>214.4914389920906</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3874.461355296436</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-3.894621675664728e-13</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3920.707631680062</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" t="b">
-        <v>0</v>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B28" t="n">
         <v>450</v>
@@ -1855,34 +1875,29 @@
       <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="n">
-        <v>231.791103567495</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4316.908019629028</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4322.831491339555</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
-      <c r="Q28" t="b">
-        <v>0</v>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B29" t="n">
         <v>450</v>
@@ -1910,34 +1925,29 @@
       <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>203.4875050935021</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3593.030820805678</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.766227554488968e-13</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3612.831551628262</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>78.53981633974483</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B30" t="n">
         <v>450</v>
@@ -1965,34 +1975,29 @@
       <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="J30" t="n">
-        <v>216.5051352886466</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3925.962539351574</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" t="b">
-        <v>0</v>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B31" t="n">
         <v>450</v>
@@ -2020,34 +2025,29 @@
       <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>237.0560611567323</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4451.561666412592</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-4.104511466568815e-13</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4476.769531365456</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" t="b">
-        <v>0</v>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B32" t="n">
         <v>450</v>
@@ -2075,34 +2075,29 @@
       <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>204.2323279105517</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3612.079997712319</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" t="b">
-        <v>0</v>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B33" t="n">
         <v>450</v>
@@ -2130,34 +2125,29 @@
       <c r="I33" t="n">
         <v>2</v>
       </c>
-      <c r="J33" t="n">
-        <v>218.634771100586</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3980.428928403735</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-3.962158467728279e-13</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4071.504079052372</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" t="b">
-        <v>0</v>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B34" t="n">
         <v>450</v>
@@ -2185,34 +2175,29 @@
       <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
-        <v>243.5005568597932</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4616.382528383457</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4636.990756698535</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="b">
-        <v>0</v>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B35" t="n">
         <v>450</v>
@@ -2240,34 +2225,29 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>205.7653402429072</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3651.28747424315</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-3.829348686687107e-13</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3820.176666765188</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="Q35" t="b">
-        <v>0</v>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B36" t="n">
         <v>450</v>
@@ -2295,34 +2275,29 @@
       <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="n">
-        <v>223.3121284500822</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4100.054436063484</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4222.300526424682</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" t="b">
-        <v>0</v>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B37" t="n">
         <v>450</v>
@@ -2350,34 +2325,29 @@
       <c r="I37" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="n">
-        <v>270.0682062169959</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5295.862051585575</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-8.514949253627232e-13</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5428.672105403162</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" t="b">
-        <v>0</v>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B38" t="n">
         <v>450</v>
@@ -2405,34 +2375,29 @@
       <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>207.3604107232165</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3692.082115683287</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-3.872618163372837e-13</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
-      <c r="Q38" t="b">
-        <v>0</v>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B39" t="n">
         <v>450</v>
@@ -2460,34 +2425,29 @@
       <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="J39" t="n">
-        <v>228.7174853194324</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4238.298857274486</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4398.229715025711</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" t="b">
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B40" t="n">
         <v>450</v>
@@ -2518,9 +2478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -2530,13 +2488,16 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" t="b">
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B41" t="n">
         <v>450</v>
@@ -2564,34 +2525,29 @@
       <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>209.4503648303252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3745.533627374045</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
-      <c r="Q41" t="b">
-        <v>0</v>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B42" t="n">
         <v>450</v>
@@ -2619,34 +2575,29 @@
       <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="J42" t="n">
-        <v>242.3141210776434</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4586.038902241519</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4908.738521234052</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" t="b">
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B43" t="n">
         <v>450</v>
@@ -2677,9 +2628,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -2689,13 +2638,16 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" t="b">
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B44" t="n">
         <v>450</v>
@@ -2723,34 +2675,29 @@
       <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="n">
-        <v>210.7606497716355</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3779.044751192725</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-3.962158467728279e-13</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
-      <c r="Q44" t="b">
-        <v>0</v>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B45" t="n">
         <v>450</v>
@@ -2778,34 +2725,29 @@
       <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="J45" t="n">
-        <v>256.1124038917269</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4938.936160913731</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5541.769440932395</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" t="b">
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B46" t="n">
         <v>450</v>
@@ -2836,9 +2778,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -2848,13 +2788,16 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
-      <c r="Q46" t="b">
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B47" t="n">
         <v>450</v>
@@ -2882,34 +2825,29 @@
       <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="J47" t="n">
-        <v>212.5802903263082</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3825.582872795606</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-8.016999004877101e-13</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
-      <c r="Q47" t="b">
-        <v>0</v>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B48" t="n">
         <v>450</v>
@@ -2940,9 +2878,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>0</v>
       </c>
@@ -2952,13 +2888,16 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
-      <c r="Q48" t="b">
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B49" t="n">
         <v>450</v>
@@ -2989,9 +2928,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>0</v>
       </c>
@@ -3001,13 +2938,16 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
-      <c r="Q49" t="b">
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B50" t="n">
         <v>450</v>
@@ -3029,40 +2969,35 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="J50" t="n">
-        <v>200.2086</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3312</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3317.521842190822</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
-      <c r="Q50" t="b">
-        <v>0</v>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B51" t="n">
         <v>450</v>
@@ -3090,34 +3025,29 @@
       <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="J51" t="n">
-        <v>207.8033614953521</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3506.48813048277</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3518.583772020568</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
-      <c r="Q51" t="b">
-        <v>0</v>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B52" t="n">
         <v>450</v>
@@ -3145,34 +3075,29 @@
       <c r="I52" t="n">
         <v>3</v>
       </c>
-      <c r="J52" t="n">
-        <v>216.9345808070817</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3740.322171756254</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
-      <c r="Q52" t="b">
-        <v>0</v>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B53" t="n">
         <v>450</v>
@@ -3194,40 +3119,35 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="n">
-        <v>200.7111072991148</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3324.868304714847</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>3377.212102609028</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
-      <c r="Q53" t="b">
-        <v>0</v>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B54" t="n">
         <v>450</v>
@@ -3255,34 +3175,29 @@
       <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="J54" t="n">
-        <v>209.0002367486469</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3537.137944907731</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3612.831551628262</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
-      <c r="Q54" t="b">
-        <v>0</v>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B55" t="n">
         <v>450</v>
@@ -3310,34 +3225,29 @@
       <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="J55" t="n">
-        <v>219.1576396058334</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3797.250694131458</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3848.451000647497</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
-      <c r="Q55" t="b">
-        <v>0</v>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B56" t="n">
         <v>450</v>
@@ -3365,34 +3275,29 @@
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="n">
-        <v>201.2189009361916</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3337.871983001066</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3392.920065876976</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" t="b">
-        <v>0</v>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B57" t="n">
         <v>450</v>
@@ -3420,34 +3325,29 @@
       <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="J57" t="n">
-        <v>210.2296084171059</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3568.619933856744</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" t="b">
-        <v>0</v>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B58" t="n">
         <v>450</v>
@@ -3475,34 +3375,29 @@
       <c r="I58" t="n">
         <v>3</v>
       </c>
-      <c r="J58" t="n">
-        <v>221.497032907604</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3857.158333101256</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-8.308526241418087e-13</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3958.40674352314</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
-      <c r="Q58" t="b">
-        <v>0</v>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B59" t="n">
         <v>450</v>
@@ -3530,34 +3425,29 @@
       <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="n">
-        <v>202.2519184985811</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3364.325697786968</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3418.052807105695</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
-      <c r="Q59" t="b">
-        <v>0</v>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B60" t="n">
         <v>450</v>
@@ -3585,34 +3475,29 @@
       <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="J60" t="n">
-        <v>212.7933485580625</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3634.272690347311</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3820.176666765188</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" t="b">
-        <v>0</v>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B61" t="n">
         <v>450</v>
@@ -3640,34 +3525,29 @@
       <c r="I61" t="n">
         <v>3</v>
       </c>
-      <c r="J61" t="n">
-        <v>226.5820100398334</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3987.375417153223</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.257474626813616e-13</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>201.0619298297468</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B62" t="n">
         <v>450</v>
@@ -3695,34 +3575,29 @@
       <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="J62" t="n">
-        <v>203.3090840883672</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3391.397799958188</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
-      <c r="Q62" t="b">
-        <v>0</v>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B63" t="n">
         <v>450</v>
@@ -3750,34 +3625,29 @@
       <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="J63" t="n">
-        <v>215.5114403374797</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3703.878113635843</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" t="b">
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B64" t="n">
         <v>450</v>
@@ -3805,34 +3675,29 @@
       <c r="I64" t="n">
         <v>3</v>
       </c>
-      <c r="J64" t="n">
-        <v>232.3368997367698</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4134.74775254212</v>
-      </c>
-      <c r="L64" t="n">
-        <v>8.731890635885251e-13</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4398.229715025711</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>314.1592653589793</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B65" t="n">
         <v>450</v>
@@ -3860,34 +3725,29 @@
       <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="n">
-        <v>204.6662419163877</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3426.152161751286</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3436.116964863836</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
-      <c r="Q65" t="b">
-        <v>0</v>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B66" t="n">
         <v>450</v>
@@ -3915,34 +3775,29 @@
       <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="J66" t="n">
-        <v>221.0985081552506</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3846.952833681194</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" t="b">
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B67" t="n">
         <v>450</v>
@@ -3970,34 +3825,29 @@
       <c r="I67" t="n">
         <v>3</v>
       </c>
-      <c r="J67" t="n">
-        <v>247.6766684436417</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4527.571535048443</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>4908.738521234052</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" t="b">
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B68" t="n">
         <v>450</v>
@@ -4025,34 +3875,29 @@
       <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="J68" t="n">
-        <v>205.5005006046123</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3447.516020604669</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
-      <c r="Q68" t="b">
-        <v>0</v>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B69" t="n">
         <v>450</v>
@@ -4080,34 +3925,29 @@
       <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="J69" t="n">
-        <v>224.821090154501</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3942.28143801539</v>
-      </c>
-      <c r="L69" t="n">
-        <v>-4.311027766773535e-13</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" t="b">
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B70" t="n">
         <v>450</v>
@@ -4135,34 +3975,29 @@
       <c r="I70" t="n">
         <v>3</v>
       </c>
-      <c r="J70" t="n">
-        <v>261.0419216407331</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4869.831540095597</v>
-      </c>
-      <c r="L70" t="n">
-        <v>-9.45452986092403e-13</v>
-      </c>
-      <c r="M70" t="n">
-        <v>4926.017280828795</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
-      <c r="Q70" t="b">
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B71" t="n">
         <v>450</v>
@@ -4190,34 +4025,29 @@
       <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="J71" t="n">
-        <v>206.6372992008712</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3476.627380303999</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" t="b">
-        <v>0</v>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B72" t="n">
         <v>450</v>
@@ -4245,34 +4075,29 @@
       <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="J72" t="n">
-        <v>230.3322969496788</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4083.41349422993</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.422280096238659e-13</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4825.486315913922</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>804.247719318987</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B73" t="n">
         <v>450</v>
@@ -4303,9 +4128,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
         <v>0</v>
       </c>
@@ -4315,13 +4138,16 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
-      <c r="Q73" t="b">
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B74" t="n">
         <v>450</v>
@@ -4343,40 +4169,35 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="J74" t="n">
-        <v>203.0394307548612</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3186.908480893877</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>3216.990877275948</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
       </c>
-      <c r="Q74" t="b">
-        <v>0</v>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B75" t="n">
         <v>450</v>
@@ -4398,40 +4219,35 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="J75" t="n">
-        <v>209.5415565799829</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3353.629655896996</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>3367.787324648258</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
-      <c r="Q75" t="b">
-        <v>0</v>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B76" t="n">
         <v>450</v>
@@ -4453,40 +4269,35 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="n">
-        <v>216.9634448729746</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3543.934483922426</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>3568.849254478005</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
-      <c r="Q76" t="b">
-        <v>0</v>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B77" t="n">
         <v>450</v>
@@ -4508,40 +4319,35 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="J77" t="n">
-        <v>203.4776600918061</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3198.145130559132</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3220.132469929538</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
-      <c r="Q77" t="b">
-        <v>0</v>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B78" t="n">
         <v>450</v>
@@ -4563,40 +4369,35 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="J78" t="n">
-        <v>210.5403609733048</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3379.240024956533</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" t="b">
-        <v>0</v>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B79" t="n">
         <v>450</v>
@@ -4618,40 +4419,35 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>3</v>
       </c>
-      <c r="J79" t="n">
-        <v>218.6970550166518</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3588.386026067995</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>3612.831551628262</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
-      <c r="Q79" t="b">
-        <v>0</v>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B80" t="n">
         <v>450</v>
@@ -4673,40 +4469,35 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="J80" t="n">
-        <v>203.9196727730217</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3209.478789051839</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>3279.822730347744</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
-      <c r="Q80" t="b">
-        <v>0</v>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B81" t="n">
         <v>450</v>
@@ -4728,40 +4519,35 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
-      <c r="J81" t="n">
-        <v>211.5584523941056</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3405.344933182195</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>3506.017401406209</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
-      <c r="Q81" t="b">
-        <v>0</v>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B82" t="n">
         <v>450</v>
@@ -4783,40 +4569,35 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>3</v>
       </c>
-      <c r="J82" t="n">
-        <v>220.4879489232567</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3634.306382647609</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>3732.212072464674</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
-      <c r="Q82" t="b">
-        <v>0</v>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B83" t="n">
         <v>450</v>
@@ -4838,40 +4619,35 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
-        <v>204.8152822584207</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3232.443134831301</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>3418.052807105695</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
-      <c r="Q83" t="b">
-        <v>0</v>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B84" t="n">
         <v>450</v>
@@ -4893,40 +4669,35 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
-      <c r="J84" t="n">
-        <v>213.6552606904442</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3459.109248472927</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" t="b">
-        <v>0</v>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B85" t="n">
         <v>450</v>
@@ -4948,40 +4719,35 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>224.2562960790422</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3730.930668693389</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>3820.176666765188</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" t="b">
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B86" t="n">
         <v>450</v>
@@ -5003,40 +4769,35 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>205.7267412343713</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3255.813877804392</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
-      <c r="Q86" t="b">
-        <v>0</v>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B87" t="n">
         <v>450</v>
@@ -5058,40 +4819,35 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="J87" t="n">
-        <v>215.8379008686871</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3515.074381248387</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
       </c>
-      <c r="Q87" t="b">
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B88" t="n">
         <v>450</v>
@@ -5113,40 +4869,35 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
-      <c r="J88" t="n">
-        <v>228.3017900731608</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3834.661283927199</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>4084.070449666731</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
-      <c r="Q88" t="b">
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B89" t="n">
         <v>450</v>
@@ -5168,40 +4919,35 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="J89" t="n">
-        <v>206.8891252505056</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3285.618596166811</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>3436.116964863836</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
-      <c r="Q89" t="b">
-        <v>0</v>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B90" t="n">
         <v>450</v>
@@ -5223,40 +4969,35 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>2</v>
       </c>
-      <c r="J90" t="n">
-        <v>220.1853404868618</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3626.547191970816</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
-      <c r="Q90" t="b">
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B91" t="n">
         <v>450</v>
@@ -5284,34 +5025,29 @@
       <c r="I91" t="n">
         <v>3</v>
       </c>
-      <c r="J91" t="n">
-        <v>237.8889274890549</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4080.485320232177</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>4417.864669110647</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
-      <c r="Q91" t="b">
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B92" t="n">
         <v>450</v>
@@ -5333,40 +5069,35 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="J92" t="n">
-        <v>207.5992531127134</v>
-      </c>
-      <c r="K92" t="n">
-        <v>3303.827002890088</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
-      <c r="Q92" t="b">
-        <v>0</v>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B93" t="n">
         <v>450</v>
@@ -5388,40 +5119,35 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
-      <c r="J93" t="n">
-        <v>222.9711670014715</v>
-      </c>
-      <c r="K93" t="n">
-        <v>3697.978641063371</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
-      <c r="Q93" t="b">
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B94" t="n">
         <v>450</v>
@@ -5449,34 +5175,29 @@
       <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="n">
-        <v>244.6939028917489</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4254.971869019204</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
-      <c r="Q94" t="b">
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B95" t="n">
         <v>450</v>
@@ -5498,40 +5219,35 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="J95" t="n">
-        <v>208.5613921834561</v>
-      </c>
-      <c r="K95" t="n">
-        <v>3328.497235473233</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
-      <c r="Q95" t="b">
-        <v>0</v>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B96" t="n">
         <v>450</v>
@@ -5553,40 +5269,35 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="J96" t="n">
-        <v>226.9201542084443</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3799.234723293444</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
-      <c r="Q96" t="b">
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B97" t="n">
         <v>450</v>
@@ -5614,34 +5325,29 @@
       <c r="I97" t="n">
         <v>3</v>
       </c>
-      <c r="J97" t="n">
-        <v>255.5945250049019</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4534.47500012569</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>4825.486315913922</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
-      <c r="Q97" t="b">
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B98" t="n">
         <v>450</v>
@@ -5663,40 +5369,35 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="J98" t="n">
-        <v>207.5869252094539</v>
-      </c>
-      <c r="K98" t="n">
-        <v>3105.569325018071</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>3116.459912361075</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
-      <c r="Q98" t="b">
-        <v>0</v>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B99" t="n">
         <v>450</v>
@@ -5718,40 +5419,35 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
-      <c r="J99" t="n">
-        <v>213.4995781715328</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3257.37042802395</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>3267.256359733385</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
-      <c r="Q99" t="b">
-        <v>0</v>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B100" t="n">
         <v>450</v>
@@ -5773,40 +5469,35 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="n">
-        <v>220.1531985655693</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3428.195085123732</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>3468.318289563132</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
-      <c r="Q100" t="b">
-        <v>0</v>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B101" t="n">
         <v>450</v>
@@ -5828,40 +5519,35 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="J101" t="n">
-        <v>207.9877178355883</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3115.859251234616</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>3141.592653589793</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
-      <c r="Q101" t="b">
-        <v>0</v>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B102" t="n">
         <v>450</v>
@@ -5883,40 +5569,35 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
-      <c r="J102" t="n">
-        <v>214.4011370211348</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3280.516996691522</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>3298.672286269283</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
-      <c r="Q102" t="b">
-        <v>0</v>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B103" t="n">
         <v>450</v>
@@ -5938,40 +5619,35 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>3</v>
       </c>
-      <c r="J103" t="n">
-        <v>221.691524678731</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3467.689978914788</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>3534.291735288517</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
-      <c r="Q103" t="b">
-        <v>0</v>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B104" t="n">
         <v>450</v>
@@ -5993,40 +5669,35 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="J104" t="n">
-        <v>208.3916443289703</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3126.229636173821</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>3166.725394818512</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
-      <c r="Q104" t="b">
-        <v>0</v>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B105" t="n">
         <v>450</v>
@@ -6048,40 +5719,35 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>2</v>
       </c>
-      <c r="J105" t="n">
-        <v>215.3181910231194</v>
-      </c>
-      <c r="K105" t="n">
-        <v>3304.061386986377</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>3392.920065876976</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
       </c>
-      <c r="Q105" t="b">
-        <v>0</v>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B106" t="n">
         <v>450</v>
@@ -6103,40 +5769,35 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>3</v>
       </c>
-      <c r="J106" t="n">
-        <v>223.2740378551924</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3508.319328759753</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
       </c>
-      <c r="Q106" t="b">
-        <v>0</v>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B107" t="n">
         <v>450</v>
@@ -6158,40 +5819,35 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="J107" t="n">
-        <v>209.2090696999174</v>
-      </c>
-      <c r="K107" t="n">
-        <v>3147.216166878496</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>3216.990877275948</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" t="b">
-        <v>0</v>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B108" t="n">
         <v>450</v>
@@ -6213,40 +5869,35 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
-      <c r="J108" t="n">
-        <v>217.2006938271745</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3352.392652815776</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>3418.052807105695</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
       </c>
-      <c r="Q108" t="b">
-        <v>0</v>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B109" t="n">
         <v>450</v>
@@ -6268,40 +5919,35 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>3</v>
       </c>
-      <c r="J109" t="n">
-        <v>226.5810550099803</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3593.223491912203</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
-      <c r="Q109" t="b">
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B110" t="n">
         <v>450</v>
@@ -6323,40 +5969,35 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="J110" t="n">
-        <v>210.0395516341525</v>
-      </c>
-      <c r="K110" t="n">
-        <v>3168.537911018037</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
       </c>
-      <c r="Q110" t="b">
-        <v>0</v>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B111" t="n">
         <v>450</v>
@@ -6378,40 +6019,35 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
-      <c r="J111" t="n">
-        <v>219.1511321854903</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3402.468092053666</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
       </c>
-      <c r="Q111" t="b">
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B112" t="n">
         <v>450</v>
@@ -6433,40 +6069,35 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>3</v>
       </c>
-      <c r="J112" t="n">
-        <v>230.0951170603325</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3683.443313487354</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
       </c>
-      <c r="Q112" t="b">
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B113" t="n">
         <v>450</v>
@@ -6488,40 +6119,35 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="J113" t="n">
-        <v>211.0965721328673</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3195.675792884912</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>3436.116964863836</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
       </c>
-      <c r="Q113" t="b">
-        <v>0</v>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B114" t="n">
         <v>450</v>
@@ -6543,40 +6169,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
-      <c r="J114" t="n">
-        <v>223.007121275235</v>
-      </c>
-      <c r="K114" t="n">
-        <v>3501.466528247369</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
       </c>
-      <c r="Q114" t="b">
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B115" t="n">
         <v>450</v>
@@ -6598,40 +6219,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>3</v>
       </c>
-      <c r="J115" t="n">
-        <v>238.1944331093832</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3891.384675465551</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
-      <c r="Q115" t="b">
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B116" t="n">
         <v>450</v>
@@ -6653,40 +6269,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="n">
-        <v>211.7411599962529</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3212.224903626518</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
-      <c r="Q116" t="b">
-        <v>0</v>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B117" t="n">
         <v>450</v>
@@ -6708,40 +6319,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>2</v>
       </c>
-      <c r="J117" t="n">
-        <v>225.4568109376061</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3564.359715984751</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
       </c>
-      <c r="Q117" t="b">
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B118" t="n">
         <v>450</v>
@@ -6763,40 +6369,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>3</v>
       </c>
-      <c r="J118" t="n">
-        <v>243.6587518810231</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4031.675272940259</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
       </c>
-      <c r="Q118" t="b">
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B119" t="n">
         <v>450</v>
@@ -6818,40 +6419,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="J119" t="n">
-        <v>212.6130631516858</v>
-      </c>
-      <c r="K119" t="n">
-        <v>3234.610093753166</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
         <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
       </c>
-      <c r="Q119" t="b">
-        <v>0</v>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B120" t="n">
         <v>450</v>
@@ -6873,40 +6469,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="J120" t="n">
-        <v>228.899324529536</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3652.742606663311</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
-      <c r="Q120" t="b">
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B121" t="n">
         <v>450</v>
@@ -6928,40 +6519,35 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>3</v>
       </c>
-      <c r="J121" t="n">
-        <v>251.8327041365949</v>
-      </c>
-      <c r="K121" t="n">
-        <v>4241.532840477404</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>4825.486315913922</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
-      <c r="Q121" t="b">
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B122" t="n">
         <v>450</v>
@@ -6983,40 +6569,45 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="J122" t="n">
-        <v>213.0727121507901</v>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K122" t="n">
-        <v>3048.14170053445</v>
+        <v>402.5757536470541</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>7024.283848022084</v>
       </c>
       <c r="M122" t="n">
-        <v>3066.194429903638</v>
+        <v>895.401335706812</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>7037.167544041136</v>
       </c>
       <c r="O122" t="n">
-        <v>61</v>
+        <v>904.7786842338604</v>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="b">
+        <v>140</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>18</v>
+      </c>
+      <c r="R122" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B123" t="n">
         <v>450</v>
@@ -7038,40 +6629,35 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="J123" t="n">
-        <v>218.6016899399951</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3190.274805655402</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>3216.990877275948</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
       </c>
-      <c r="Q123" t="b">
-        <v>0</v>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B124" t="n">
         <v>450</v>
@@ -7093,40 +6679,35 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>3</v>
       </c>
-      <c r="J124" t="n">
-        <v>224.768876756077</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3348.814312495553</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>3367.787324648258</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" t="b">
-        <v>0</v>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B125" t="n">
         <v>450</v>
@@ -7148,40 +6729,45 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
-      <c r="J125" t="n">
-        <v>213.4488582828032</v>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K125" t="n">
-        <v>3057.811266910107</v>
+        <v>404.3243968540149</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>7041.287567994544</v>
       </c>
       <c r="M125" t="n">
-        <v>3063.052837250048</v>
+        <v>923.3498832654788</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>7068.583470577035</v>
       </c>
       <c r="O125" t="n">
-        <v>39</v>
+        <v>942.4777960769379</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q125" t="b">
+        <v>90</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>12</v>
+      </c>
+      <c r="R125" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B126" t="n">
         <v>450</v>
@@ -7203,40 +6789,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>2</v>
       </c>
-      <c r="J126" t="n">
-        <v>219.4408409167484</v>
-      </c>
-      <c r="K126" t="n">
-        <v>3211.846810199188</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" t="n">
-        <v>3220.132469929538</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" t="b">
-        <v>0</v>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B127" t="n">
         <v>450</v>
@@ -7258,40 +6839,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>3</v>
       </c>
-      <c r="J127" t="n">
-        <v>226.1859192026794</v>
-      </c>
-      <c r="K127" t="n">
-        <v>3385.242138886359</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
       </c>
-      <c r="Q127" t="b">
-        <v>0</v>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B128" t="n">
         <v>450</v>
@@ -7313,40 +6889,45 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
-      <c r="J128" t="n">
-        <v>213.8277502409859</v>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K128" t="n">
-        <v>3067.551420076757</v>
+        <v>406.0935228797686</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>7058.554563272824</v>
       </c>
       <c r="M128" t="n">
-        <v>3166.725394818512</v>
+        <v>951.561706129965</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>7125.132138341651</v>
       </c>
       <c r="O128" t="n">
-        <v>28</v>
+        <v>1017.876019763093</v>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="b">
+        <v>63</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>9</v>
+      </c>
+      <c r="R128" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B129" t="n">
         <v>450</v>
@@ -7368,40 +6949,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
-      <c r="J129" t="n">
-        <v>220.2933140229957</v>
-      </c>
-      <c r="K129" t="n">
-        <v>3233.761285938194</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>3279.822730347744</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="b">
-        <v>0</v>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B130" t="n">
         <v>450</v>
@@ -7423,40 +6999,35 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>3</v>
       </c>
-      <c r="J130" t="n">
-        <v>227.6400426231398</v>
-      </c>
-      <c r="K130" t="n">
-        <v>3422.623203679686</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>3506.017401406209</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="b">
-        <v>0</v>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B131" t="n">
         <v>450</v>
@@ -7478,40 +7049,45 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
-      <c r="J131" t="n">
-        <v>214.5939085716216</v>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K131" t="n">
-        <v>3087.24700698256</v>
+        <v>409.6945965375168</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>7093.896029488008</v>
       </c>
       <c r="M131" t="n">
-        <v>3216.990877275948</v>
+        <v>1008.792827517564</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O131" t="n">
-        <v>16</v>
+        <v>1206.371578978481</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="b">
+        <v>36</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>6</v>
+      </c>
+      <c r="R131" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B132" t="n">
         <v>450</v>
@@ -7533,40 +7109,35 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>2</v>
       </c>
-      <c r="J132" t="n">
-        <v>222.0397067229822</v>
-      </c>
-      <c r="K132" t="n">
-        <v>3278.655699819593</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>3418.052807105695</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="b">
-        <v>0</v>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B133" t="n">
         <v>450</v>
@@ -7588,40 +7159,35 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>3</v>
       </c>
-      <c r="J133" t="n">
-        <v>230.6665270854601</v>
-      </c>
-      <c r="K133" t="n">
-        <v>3500.424860808742</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="b">
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B134" t="n">
         <v>450</v>
@@ -7643,40 +7209,45 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
-      <c r="J134" t="n">
-        <v>215.3714673504989</v>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K134" t="n">
-        <v>3107.235664537246</v>
+        <v>413.3817984991137</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>7130.344543310503</v>
       </c>
       <c r="M134" t="n">
-        <v>3141.592653589793</v>
+        <v>1067.130996512472</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>7225.663103256525</v>
       </c>
       <c r="O134" t="n">
-        <v>10</v>
+        <v>1256.637061435917</v>
       </c>
       <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="b">
+        <v>23</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B135" t="n">
         <v>450</v>
@@ -7698,40 +7269,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
-      <c r="J135" t="n">
-        <v>223.8439842950558</v>
-      </c>
-      <c r="K135" t="n">
-        <v>3325.03815668524</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>3455.751918948773</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="b">
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B136" t="n">
         <v>450</v>
@@ -7753,40 +7319,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>3</v>
       </c>
-      <c r="J136" t="n">
-        <v>233.8636081399014</v>
-      </c>
-      <c r="K136" t="n">
-        <v>3582.612034444766</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="b">
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B137" t="n">
         <v>450</v>
@@ -7808,40 +7369,45 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
-      <c r="J137" t="n">
-        <v>216.3598916150952</v>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K137" t="n">
-        <v>3132.645028665686</v>
+        <v>418.1164304344279</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>7177.519960438465</v>
       </c>
       <c r="M137" t="n">
-        <v>3436.116964863836</v>
+        <v>1141.668482605951</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O137" t="n">
-        <v>7</v>
+        <v>1472.621556370216</v>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>3</v>
+      </c>
+      <c r="R137" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B138" t="n">
         <v>450</v>
@@ -7863,40 +7429,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="J138" t="n">
-        <v>227.3950421750519</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3416.324991646577</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>3436.116964863836</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="b">
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B139" t="n">
         <v>450</v>
@@ -7918,40 +7479,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>3</v>
       </c>
-      <c r="J139" t="n">
-        <v>241.152686588865</v>
-      </c>
-      <c r="K139" t="n">
-        <v>3769.991943158484</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="b">
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B140" t="n">
         <v>450</v>
@@ -7973,40 +7529,45 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
-      <c r="J140" t="n">
-        <v>216.9619600972237</v>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K140" t="n">
-        <v>3148.122367537884</v>
+        <v>421.0265357690695</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>7206.716292636235</v>
       </c>
       <c r="M140" t="n">
-        <v>3694.512960621596</v>
+        <v>1187.282056183033</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>7389.025921243193</v>
       </c>
       <c r="O140" t="n">
-        <v>6</v>
+        <v>1231.504320207199</v>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q140" t="b">
+        <v>12</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B141" t="n">
         <v>450</v>
@@ -8028,40 +7589,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>2</v>
       </c>
-      <c r="J141" t="n">
-        <v>229.6395425341261</v>
-      </c>
-      <c r="K141" t="n">
-        <v>3474.024229669052</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="b">
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B142" t="n">
         <v>450</v>
@@ -8083,40 +7639,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>3</v>
       </c>
-      <c r="J142" t="n">
-        <v>246.0022277777349</v>
-      </c>
-      <c r="K142" t="n">
-        <v>3894.658811766963</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="b">
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B143" t="n">
         <v>450</v>
@@ -8138,40 +7689,45 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="J143" t="n">
-        <v>217.7755091350624</v>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K143" t="n">
-        <v>3169.036224551732</v>
+        <v>424.9903946644872</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>7246.720808178791</v>
       </c>
       <c r="M143" t="n">
-        <v>3216.990877275948</v>
+        <v>1249.176226898001</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>8042.47719318987</v>
       </c>
       <c r="O143" t="n">
-        <v>4</v>
+        <v>1608.495438637974</v>
       </c>
       <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B144" t="n">
         <v>450</v>
@@ -8193,40 +7749,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
-      <c r="J144" t="n">
-        <v>232.7779240384228</v>
-      </c>
-      <c r="K144" t="n">
-        <v>3554.702417440174</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
         <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="b">
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B145" t="n">
         <v>450</v>
@@ -8248,40 +7799,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>3</v>
       </c>
-      <c r="J145" t="n">
-        <v>253.142785200111</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4078.220699231646</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>4825.486315913922</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="b">
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B146" t="n">
         <v>450</v>
@@ -8303,40 +7849,45 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
-      <c r="J146" t="n">
-        <v>219.131767785434</v>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K146" t="n">
-        <v>3005.322208119278</v>
+        <v>391.0732865693976</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>7120.485392762851</v>
       </c>
       <c r="M146" t="n">
-        <v>3015.928947446201</v>
+        <v>310.6159346347703</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>7137.69850895601</v>
       </c>
       <c r="O146" t="n">
-        <v>60</v>
+        <v>351.8583772020568</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="b">
+        <v>142</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B147" t="n">
         <v>450</v>
@@ -8358,40 +7909,45 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>2</v>
       </c>
-      <c r="J147" t="n">
-        <v>224.3899679651223</v>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K147" t="n">
-        <v>3140.668416090665</v>
+        <v>413.8338461218644</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>7328.287650350184</v>
       </c>
       <c r="M147" t="n">
-        <v>3166.725394818512</v>
+        <v>688.6710657853224</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>7338.760438785756</v>
       </c>
       <c r="O147" t="n">
-        <v>63</v>
+        <v>703.7167544041137</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="b">
+        <v>146</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>14</v>
+      </c>
+      <c r="R147" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B148" t="n">
         <v>450</v>
@@ -8413,40 +7969,45 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>3</v>
       </c>
-      <c r="J148" t="n">
-        <v>230.219930942579</v>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K148" t="n">
-        <v>3290.731813193796</v>
+        <v>438.2023608193184</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>7556.784311347904</v>
       </c>
       <c r="M148" t="n">
-        <v>3317.521842190822</v>
+        <v>1087.420600346261</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>7590.08785107294</v>
       </c>
       <c r="O148" t="n">
-        <v>66</v>
+        <v>1105.840614063607</v>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="b">
+        <v>151</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>22</v>
+      </c>
+      <c r="R148" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B149" t="n">
         <v>450</v>
@@ -8468,40 +8029,45 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>1</v>
       </c>
-      <c r="J149" t="n">
-        <v>219.490388498836</v>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K149" t="n">
-        <v>3014.553114513152</v>
+        <v>392.7215935691346</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>7135.618665293083</v>
       </c>
       <c r="M149" t="n">
-        <v>3063.052837250048</v>
+        <v>337.9101267052337</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>7147.12328691678</v>
       </c>
       <c r="O149" t="n">
-        <v>39</v>
+        <v>392.6990816987242</v>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="b">
+        <v>91</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B150" t="n">
         <v>450</v>
@@ -8523,40 +8089,45 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>2</v>
       </c>
-      <c r="J150" t="n">
-        <v>225.1854806234469</v>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K150" t="n">
-        <v>3161.144932392455</v>
+        <v>417.3778262328109</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>7361.737800448905</v>
       </c>
       <c r="M150" t="n">
-        <v>3220.132469929538</v>
+        <v>746.443054964504</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>7382.742735936014</v>
       </c>
       <c r="O150" t="n">
-        <v>41</v>
+        <v>785.3981633974483</v>
       </c>
       <c r="P150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q150" t="b">
+        <v>94</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>10</v>
+      </c>
+      <c r="R150" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B151" t="n">
         <v>450</v>
@@ -8578,40 +8149,45 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>3</v>
       </c>
-      <c r="J151" t="n">
-        <v>231.5539143710198</v>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K151" t="n">
-        <v>3325.068580978631</v>
+        <v>443.9262761709914</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>7612.209796280456</v>
       </c>
       <c r="M151" t="n">
-        <v>3377.212102609028</v>
+        <v>1179.328843899502</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>7618.362184955248</v>
       </c>
       <c r="O151" t="n">
-        <v>43</v>
+        <v>1256.637061435917</v>
       </c>
       <c r="P151" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q151" t="b">
+        <v>97</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>16</v>
+      </c>
+      <c r="R151" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B152" t="n">
         <v>450</v>
@@ -8633,40 +8209,45 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>1</v>
       </c>
-      <c r="J152" t="n">
-        <v>219.8514978218664</v>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K152" t="n">
-        <v>3023.84807778292</v>
+        <v>394.389402019644</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>7151.00292174574</v>
       </c>
       <c r="M152" t="n">
-        <v>3053.628059289279</v>
+        <v>365.4553026981199</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O152" t="n">
-        <v>27</v>
+        <v>452.3893421169302</v>
       </c>
       <c r="P152" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q152" t="b">
+        <v>64</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B153" t="n">
         <v>450</v>
@@ -8688,40 +8269,45 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>2</v>
       </c>
-      <c r="J153" t="n">
-        <v>225.9929131697537</v>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K153" t="n">
-        <v>3181.928266917728</v>
+        <v>420.9831914954671</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>7395.977978240157</v>
       </c>
       <c r="M153" t="n">
-        <v>3279.822730347744</v>
+        <v>805.0050718362157</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>7464.424144929349</v>
       </c>
       <c r="O153" t="n">
-        <v>29</v>
+        <v>904.7786842338604</v>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q153" t="b">
+        <v>66</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>8</v>
+      </c>
+      <c r="R153" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B154" t="n">
         <v>450</v>
@@ -8743,40 +8329,45 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>3</v>
       </c>
-      <c r="J154" t="n">
-        <v>232.9205465439472</v>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K154" t="n">
-        <v>3360.245728286929</v>
+        <v>449.7844902400861</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>7669.363707434651</v>
       </c>
       <c r="M154" t="n">
-        <v>3392.920065876976</v>
+        <v>1272.965513674387</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>7690.618815987814</v>
       </c>
       <c r="O154" t="n">
-        <v>30</v>
+        <v>1357.168026350791</v>
       </c>
       <c r="P154" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q154" t="b">
+        <v>68</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>12</v>
+      </c>
+      <c r="R154" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B155" t="n">
         <v>450</v>
@@ -8798,40 +8389,45 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
-      <c r="J155" t="n">
-        <v>220.5812985141016</v>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K155" t="n">
-        <v>3042.633166386142</v>
+        <v>397.7848306328076</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>7182.541212156136</v>
       </c>
       <c r="M155" t="n">
-        <v>3216.990877275948</v>
+        <v>421.3154321889759</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O155" t="n">
-        <v>16</v>
+        <v>603.1857894892403</v>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q155" t="b">
+        <v>36</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B156" t="n">
         <v>450</v>
@@ -8853,40 +8449,45 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>2</v>
       </c>
-      <c r="J156" t="n">
-        <v>227.6447656247681</v>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K156" t="n">
-        <v>3224.446991628524</v>
+        <v>428.3845770802072</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>7466.912066891231</v>
       </c>
       <c r="M156" t="n">
-        <v>3418.052807105695</v>
+        <v>924.5828386482088</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>7640.353333530376</v>
       </c>
       <c r="O156" t="n">
-        <v>17</v>
+        <v>1005.309649148734</v>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q156" t="b">
+        <v>38</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B157" t="n">
         <v>450</v>
@@ -8908,40 +8509,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>3</v>
       </c>
-      <c r="J157" t="n">
-        <v>235.7573925446597</v>
-      </c>
-      <c r="K157" t="n">
-        <v>3433.266217365758</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>3619.114736935442</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
         <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="b">
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B158" t="n">
         <v>450</v>
@@ -8963,40 +8559,45 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
-      <c r="J158" t="n">
-        <v>221.3214072812801</v>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K158" t="n">
-        <v>3061.683585103734</v>
+        <v>401.2622609906823</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>7215.134866076327</v>
       </c>
       <c r="M158" t="n">
-        <v>3141.592653589793</v>
+        <v>478.2309251896264</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>7225.663103256525</v>
       </c>
       <c r="O158" t="n">
-        <v>10</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="b">
+        <v>23</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B159" t="n">
         <v>450</v>
@@ -9018,40 +8619,45 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="J159" t="n">
-        <v>229.3480992358743</v>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K159" t="n">
-        <v>3268.290842622247</v>
+        <v>436.0515858814752</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>7541.264729757591</v>
       </c>
       <c r="M159" t="n">
-        <v>3455.751918948773</v>
+        <v>1047.579179675489</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="O159" t="n">
-        <v>11</v>
+        <v>1256.637061435917</v>
       </c>
       <c r="P159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q159" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B160" t="n">
         <v>450</v>
@@ -9073,40 +8679,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>3</v>
       </c>
-      <c r="J160" t="n">
-        <v>238.7426747215184</v>
-      </c>
-      <c r="K160" t="n">
-        <v>3510.107457439341</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>3769.911184307752</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
         <v>0</v>
       </c>
       <c r="O160" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="b">
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B161" t="n">
         <v>450</v>
@@ -9128,40 +8729,45 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
-      <c r="J161" t="n">
-        <v>222.2614140234501</v>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K161" t="n">
-        <v>3085.879382842989</v>
+        <v>405.7286592909398</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>7257.416320257958</v>
       </c>
       <c r="M161" t="n">
-        <v>3436.116964863836</v>
+        <v>550.9146782218314</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O161" t="n">
-        <v>7</v>
+        <v>981.7477042468104</v>
       </c>
       <c r="P161" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q161" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B162" t="n">
         <v>450</v>
@@ -9183,40 +8789,45 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
-      <c r="J162" t="n">
-        <v>232.6904494513967</v>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K162" t="n">
-        <v>3354.323023201974</v>
+        <v>450.8086146881999</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>7685.584432147427</v>
       </c>
       <c r="M162" t="n">
-        <v>3436.116964863836</v>
+        <v>1283.105778617049</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="O162" t="n">
-        <v>7</v>
+        <v>1472.621556370216</v>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q162" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B163" t="n">
         <v>450</v>
@@ -9238,40 +8849,35 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>3</v>
       </c>
-      <c r="J163" t="n">
-        <v>245.5019238247846</v>
-      </c>
-      <c r="K163" t="n">
-        <v>3684.090703340658</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
         <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
       </c>
-      <c r="Q163" t="b">
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B164" t="n">
         <v>450</v>
@@ -9293,40 +8899,45 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
-      <c r="J164" t="n">
-        <v>222.833540275249</v>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K164" t="n">
-        <v>3100.605927290838</v>
+        <v>408.4745029051493</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>7283.634673256704</v>
       </c>
       <c r="M164" t="n">
-        <v>3694.512960621596</v>
+        <v>595.3744105309229</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>7389.025921243193</v>
       </c>
       <c r="O164" t="n">
-        <v>6</v>
+        <v>615.7521601035994</v>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="b">
+        <v>12</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>1</v>
+      </c>
+      <c r="R164" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B165" t="n">
         <v>450</v>
@@ -9348,40 +8959,35 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>2</v>
       </c>
-      <c r="J165" t="n">
-        <v>234.7959190691122</v>
-      </c>
-      <c r="K165" t="n">
-        <v>3408.517865356813</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>3694.512960621596</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
         <v>0</v>
       </c>
       <c r="O165" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
       </c>
-      <c r="Q165" t="b">
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B166" t="n">
         <v>450</v>
@@ -9403,40 +9009,35 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>3</v>
       </c>
-      <c r="J166" t="n">
-        <v>249.9601222917514</v>
-      </c>
-      <c r="K166" t="n">
-        <v>3798.844846634528</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
-      <c r="Q166" t="b">
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B167" t="n">
         <v>450</v>
@@ -9458,40 +9059,45 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="J167" t="n">
-        <v>223.6060820812915</v>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K167" t="n">
-        <v>3120.491173263617</v>
+        <v>412.2153350745771</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>7319.618311881567</v>
       </c>
       <c r="M167" t="n">
-        <v>3216.990877275948</v>
+        <v>655.6798882362463</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>8042.47719318987</v>
       </c>
       <c r="O167" t="n">
-        <v>4</v>
+        <v>804.247719318987</v>
       </c>
       <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B168" t="n">
         <v>450</v>
@@ -9513,40 +9119,35 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>2</v>
       </c>
-      <c r="J168" t="n">
-        <v>237.7302680016958</v>
-      </c>
-      <c r="K168" t="n">
-        <v>3484.048082411733</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0</v>
-      </c>
-      <c r="M168" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
         <v>0</v>
       </c>
       <c r="O168" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
       </c>
-      <c r="Q168" t="b">
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B169" t="n">
         <v>450</v>
@@ -9568,40 +9169,35 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>3</v>
       </c>
-      <c r="J169" t="n">
-        <v>256.4626635107689</v>
-      </c>
-      <c r="K169" t="n">
-        <v>3966.220424987619</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
         <v>0</v>
       </c>
       <c r="O169" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
       </c>
-      <c r="Q169" t="b">
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B170" t="n">
         <v>450</v>
@@ -9623,40 +9219,45 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
-      <c r="J170" t="n">
-        <v>225.5681995395485</v>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K170" t="n">
-        <v>2972.118544833723</v>
+        <v>382.8078193329703</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>7024.686065282738</v>
       </c>
       <c r="M170" t="n">
-        <v>3015.928947446201</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>7037.167544041136</v>
       </c>
       <c r="O170" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="b">
+        <v>140</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B171" t="n">
         <v>450</v>
@@ -9678,40 +9279,45 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>2</v>
       </c>
-      <c r="J171" t="n">
-        <v>230.6244002815564</v>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K171" t="n">
-        <v>3102.43299694733</v>
+        <v>402.7233434592089</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>7420.775506294292</v>
       </c>
       <c r="M171" t="n">
-        <v>3116.459912361075</v>
+        <v>117.1972632729466</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>7439.29140370063</v>
       </c>
       <c r="O171" t="n">
-        <v>62</v>
+        <v>150.7964473723101</v>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="b">
+        <v>148</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B172" t="n">
         <v>450</v>
@@ -9733,40 +9339,45 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>3</v>
       </c>
-      <c r="J172" t="n">
-        <v>236.2059543564844</v>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K172" t="n">
-        <v>3246.287483414546</v>
+        <v>427.4360265778526</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>7645.598837157251</v>
       </c>
       <c r="M172" t="n">
-        <v>3267.256359733385</v>
+        <v>529.2987550554441</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>7690.618815987814</v>
       </c>
       <c r="O172" t="n">
-        <v>65</v>
+        <v>552.9203070318035</v>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="b">
+        <v>153</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>11</v>
+      </c>
+      <c r="R172" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B173" t="n">
         <v>450</v>
@@ -9788,40 +9399,45 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
-      <c r="J173" t="n">
-        <v>225.9136757293054</v>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K173" t="n">
-        <v>2981.022570342923</v>
+        <v>384.0340556735695</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>7056.290094679625</v>
       </c>
       <c r="M173" t="n">
-        <v>2984.513020910304</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>7068.583470577035</v>
       </c>
       <c r="O173" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="b">
+        <v>90</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B174" t="n">
         <v>450</v>
@@ -9843,40 +9459,45 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>2</v>
       </c>
-      <c r="J174" t="n">
-        <v>231.3875734707723</v>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K174" t="n">
-        <v>3122.102409040523</v>
+        <v>406.1895657858351</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>7452.066308287492</v>
       </c>
       <c r="M174" t="n">
-        <v>3141.592653589793</v>
+        <v>175.2420882546503</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>7461.282552275759</v>
       </c>
       <c r="O174" t="n">
-        <v>40</v>
+        <v>235.6194490192345</v>
       </c>
       <c r="P174" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="b">
+        <v>95</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>3</v>
+      </c>
+      <c r="R174" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B175" t="n">
         <v>450</v>
@@ -9898,40 +9519,45 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>3</v>
       </c>
-      <c r="J175" t="n">
-        <v>237.4792741600589</v>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K175" t="n">
-        <v>3279.105004125229</v>
+        <v>433.1044859293477</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>7698.580476507304</v>
       </c>
       <c r="M175" t="n">
-        <v>3298.672286269283</v>
+        <v>622.4114288882555</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>7775.441817634738</v>
       </c>
       <c r="O175" t="n">
-        <v>42</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P175" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q175" t="b">
+        <v>99</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>8</v>
+      </c>
+      <c r="R175" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B176" t="n">
         <v>450</v>
@@ -9953,40 +9579,45 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="J176" t="n">
-        <v>226.2614577386287</v>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K176" t="n">
-        <v>2989.986024191462</v>
+        <v>385.2779770932515</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>7088.3499250838</v>
       </c>
       <c r="M176" t="n">
-        <v>3053.628059289279</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>7125.132138341651</v>
       </c>
       <c r="O176" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P176" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q176" t="b">
+        <v>63</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B177" t="n">
         <v>450</v>
@@ -10008,40 +9639,45 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>2</v>
       </c>
-      <c r="J177" t="n">
-        <v>232.1616886542601</v>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K177" t="n">
-        <v>3142.053831295364</v>
+        <v>409.715817848936</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>7484.130689358972</v>
       </c>
       <c r="M177" t="n">
-        <v>3166.725394818512</v>
+        <v>234.0604923146354</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
+        <v>7577.521480458581</v>
       </c>
       <c r="O177" t="n">
-        <v>28</v>
+        <v>339.2920065876976</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" t="b">
+        <v>67</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B178" t="n">
         <v>450</v>
@@ -10063,40 +9699,45 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>3</v>
       </c>
-      <c r="J178" t="n">
-        <v>238.7822230177089</v>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K178" t="n">
-        <v>3312.686160250231</v>
+        <v>438.9054596417822</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>7753.269775147813</v>
       </c>
       <c r="M178" t="n">
-        <v>3392.920065876976</v>
+        <v>717.2317620115232</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>7803.716151517046</v>
       </c>
       <c r="O178" t="n">
-        <v>30</v>
+        <v>791.6813487046279</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="b">
+        <v>69</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>7</v>
+      </c>
+      <c r="R178" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B179" t="n">
         <v>450</v>
@@ -10118,40 +9759,45 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>1</v>
       </c>
-      <c r="J179" t="n">
-        <v>226.9640415723656</v>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K179" t="n">
-        <v>3008.093854957875</v>
+        <v>387.8210329174704</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>7153.892600965733</v>
       </c>
       <c r="M179" t="n">
-        <v>3015.928947446201</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O179" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="b">
+        <v>36</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B180" t="n">
         <v>450</v>
@@ -10173,40 +9819,45 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>2</v>
       </c>
-      <c r="J180" t="n">
-        <v>233.7438085068863</v>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K180" t="n">
-        <v>3182.830116156864</v>
+        <v>416.9547672743056</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>7550.662097109765</v>
       </c>
       <c r="M180" t="n">
-        <v>3216.990877275948</v>
+        <v>354.099946042442</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>7640.353333530376</v>
       </c>
       <c r="O180" t="n">
-        <v>16</v>
+        <v>402.1238596594935</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="b">
+        <v>38</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B181" t="n">
         <v>450</v>
@@ -10228,40 +9879,45 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I181" t="n">
         <v>3</v>
       </c>
-      <c r="J181" t="n">
-        <v>241.4817897341265</v>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K181" t="n">
-        <v>3382.26262201357</v>
+        <v>450.924703843026</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>7868.025908206855</v>
       </c>
       <c r="M181" t="n">
-        <v>3418.052807105695</v>
+        <v>912.2499640360833</v>
       </c>
       <c r="N181" t="n">
-        <v>0</v>
+        <v>8042.47719318987</v>
       </c>
       <c r="O181" t="n">
-        <v>17</v>
+        <v>1005.309649148734</v>
       </c>
       <c r="P181" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q181" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>5</v>
+      </c>
+      <c r="R181" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B182" t="n">
         <v>450</v>
@@ -10283,40 +9939,45 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
-      <c r="J182" t="n">
-        <v>227.6761598919431</v>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K182" t="n">
-        <v>3026.447419895439</v>
+        <v>390.4415745394846</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>7221.432333491871</v>
       </c>
       <c r="M182" t="n">
-        <v>3141.592653589793</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
+        <v>7225.663103256525</v>
       </c>
       <c r="O182" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="b">
+        <v>23</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B183" t="n">
         <v>450</v>
@@ -10338,40 +9999,45 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>2</v>
       </c>
-      <c r="J183" t="n">
-        <v>235.3729827535936</v>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K183" t="n">
-        <v>3224.819143133855</v>
+        <v>424.453474821071</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>7620.540903332153</v>
       </c>
       <c r="M183" t="n">
-        <v>3455.751918948773</v>
+        <v>477.4867982418415</v>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="O183" t="n">
-        <v>11</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P183" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R183" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B184" t="n">
         <v>450</v>
@@ -10393,40 +10059,45 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>3</v>
       </c>
-      <c r="J184" t="n">
-        <v>244.3149507232773</v>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K184" t="n">
-        <v>3455.282235136015</v>
+        <v>463.5357829627797</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>7990.408779906489</v>
       </c>
       <c r="M184" t="n">
-        <v>3455.751918948773</v>
+        <v>1114.894904701236</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>8168.140899333463</v>
       </c>
       <c r="O184" t="n">
-        <v>11</v>
+        <v>1256.637061435917</v>
       </c>
       <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>4</v>
+      </c>
+      <c r="R184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B185" t="n">
         <v>450</v>
@@ -10448,40 +10119,45 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
-      <c r="J185" t="n">
-        <v>228.5800449022155</v>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>1r</t>
+        </is>
       </c>
       <c r="K185" t="n">
-        <v>3049.743425314833</v>
+        <v>393.8339878083719</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>7308.865665164223</v>
       </c>
       <c r="M185" t="n">
-        <v>3436.116964863836</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P185" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q185" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B186" t="n">
         <v>450</v>
@@ -10503,40 +10179,45 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>2</v>
       </c>
-      <c r="J186" t="n">
-        <v>238.5629581439606</v>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K186" t="n">
-        <v>3307.035003710324</v>
+        <v>439.049006837403</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>7758.463863016489</v>
       </c>
       <c r="M186" t="n">
-        <v>3436.116964863836</v>
+        <v>715.7373441330734</v>
       </c>
       <c r="N186" t="n">
-        <v>0</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="O186" t="n">
-        <v>7</v>
+        <v>981.7477042468104</v>
       </c>
       <c r="P186" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q186" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R186" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B187" t="n">
         <v>450</v>
@@ -10558,40 +10239,35 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>3</v>
       </c>
-      <c r="J187" t="n">
-        <v>250.6990374166276</v>
-      </c>
-      <c r="K187" t="n">
-        <v>3619.820551974938</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0</v>
-      </c>
-      <c r="M187" t="n">
-        <v>3926.990816987241</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
       </c>
-      <c r="Q187" t="b">
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B188" t="n">
         <v>450</v>
@@ -10613,40 +10289,45 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
-      <c r="J188" t="n">
-        <v>229.1298698089777</v>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K188" t="n">
-        <v>3063.914170334478</v>
+        <v>395.9739689677323</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>7360.553053877172</v>
       </c>
       <c r="M188" t="n">
-        <v>3078.760800517997</v>
+        <v>3.46676487881431</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>7389.025921243193</v>
       </c>
       <c r="O188" t="n">
-        <v>5</v>
+        <v>615.7521601035994</v>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q188" t="b">
+        <v>12</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B189" t="n">
         <v>450</v>
@@ -10668,40 +10349,45 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>2</v>
       </c>
-      <c r="J189" t="n">
-        <v>240.5676238157705</v>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K189" t="n">
-        <v>3358.701644736354</v>
+        <v>448.2316823372996</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>7846.699034318036</v>
       </c>
       <c r="M189" t="n">
-        <v>3694.512960621596</v>
+        <v>864.1690671587581</v>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>8004.778081346793</v>
       </c>
       <c r="O189" t="n">
-        <v>6</v>
+        <v>1231.504320207199</v>
       </c>
       <c r="P189" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q189" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>2</v>
+      </c>
+      <c r="R189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B190" t="n">
         <v>450</v>
@@ -10723,40 +10409,35 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>3</v>
       </c>
-      <c r="J190" t="n">
-        <v>254.8849092361385</v>
-      </c>
-      <c r="K190" t="n">
-        <v>3727.703846292228</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0</v>
-      </c>
-      <c r="M190" t="n">
-        <v>4310.265120725196</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
         <v>0</v>
       </c>
       <c r="O190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="b">
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B191" t="n">
         <v>450</v>
@@ -10778,40 +10459,45 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>1</v>
       </c>
-      <c r="J191" t="n">
-        <v>229.8719144414537</v>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K191" t="n">
-        <v>3083.039031996228</v>
+        <v>399.4923353681629</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>7392.515815584345</v>
       </c>
       <c r="M191" t="n">
-        <v>3216.990877275948</v>
+        <v>62.18354957449213</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>8042.47719318987</v>
       </c>
       <c r="O191" t="n">
-        <v>4</v>
+        <v>804.247719318987</v>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q191" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B192" t="n">
         <v>450</v>
@@ -10833,40 +10519,45 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>2</v>
       </c>
-      <c r="J192" t="n">
-        <v>243.3550326961988</v>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
       </c>
       <c r="K192" t="n">
-        <v>3430.542079798937</v>
+        <v>461.0099179534241</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>7971.235984579148</v>
       </c>
       <c r="M192" t="n">
-        <v>4021.238596594935</v>
+        <v>1068.968086385388</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>8042.47719318987</v>
       </c>
       <c r="O192" t="n">
-        <v>5</v>
+        <v>1608.495438637974</v>
       </c>
       <c r="P192" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q192" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="B193" t="n">
         <v>450</v>
@@ -10888,34 +10579,29 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RZT</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>3</v>
       </c>
-      <c r="J193" t="n">
-        <v>260.9518367318225</v>
-      </c>
-      <c r="K193" t="n">
-        <v>3884.067957005736</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0</v>
-      </c>
-      <c r="M193" t="n">
-        <v>4021.238596594935</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
         <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="b">
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="b">
         <v>1</v>
       </c>
     </row>

--- a/scenarios_results.xlsx
+++ b/scenarios_results.xlsx
@@ -547,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B2" t="n">
         <v>450</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B4" t="n">
         <v>450</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B5" t="n">
         <v>450</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B6" t="n">
         <v>450</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B7" t="n">
         <v>450</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B8" t="n">
         <v>450</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B9" t="n">
         <v>450</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B10" t="n">
         <v>450</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B11" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B12" t="n">
         <v>450</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B13" t="n">
         <v>450</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B14" t="n">
         <v>450</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B15" t="n">
         <v>450</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B16" t="n">
         <v>450</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B17" t="n">
         <v>450</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B18" t="n">
         <v>450</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B19" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B20" t="n">
         <v>450</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B21" t="n">
         <v>450</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B22" t="n">
         <v>450</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B23" t="n">
         <v>450</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B24" t="n">
         <v>450</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B25" t="n">
         <v>450</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B26" t="n">
         <v>450</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B27" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B28" t="n">
         <v>450</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B29" t="n">
         <v>450</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B30" t="n">
         <v>450</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B31" t="n">
         <v>450</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B32" t="n">
         <v>450</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B33" t="n">
         <v>450</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B34" t="n">
         <v>450</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B35" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B36" t="n">
         <v>450</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B37" t="n">
         <v>450</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B38" t="n">
         <v>450</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B39" t="n">
         <v>450</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B40" t="n">
         <v>450</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B41" t="n">
         <v>450</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B42" t="n">
         <v>450</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B43" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B44" t="n">
         <v>450</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B45" t="n">
         <v>450</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B46" t="n">
         <v>450</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B47" t="n">
         <v>450</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B48" t="n">
         <v>450</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B49" t="n">
         <v>450</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B50" t="n">
         <v>450</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B51" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B52" t="n">
         <v>450</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B53" t="n">
         <v>450</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B54" t="n">
         <v>450</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B55" t="n">
         <v>450</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B56" t="n">
         <v>450</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B57" t="n">
         <v>450</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B58" t="n">
         <v>450</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B59" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B60" t="n">
         <v>450</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B61" t="n">
         <v>450</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B62" t="n">
         <v>450</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B63" t="n">
         <v>450</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B64" t="n">
         <v>450</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B65" t="n">
         <v>450</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B66" t="n">
         <v>450</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B67" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B68" t="n">
         <v>450</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B69" t="n">
         <v>450</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B70" t="n">
         <v>450</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B71" t="n">
         <v>450</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B72" t="n">
         <v>450</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B73" t="n">
         <v>450</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B74" t="n">
         <v>450</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B75" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B76" t="n">
         <v>450</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B77" t="n">
         <v>450</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B78" t="n">
         <v>450</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B79" t="n">
         <v>450</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B80" t="n">
         <v>450</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B81" t="n">
         <v>450</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B82" t="n">
         <v>450</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B83" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B84" t="n">
         <v>450</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B85" t="n">
         <v>450</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B86" t="n">
         <v>450</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B87" t="n">
         <v>450</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B88" t="n">
         <v>450</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B89" t="n">
         <v>450</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B90" t="n">
         <v>450</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B91" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B92" t="n">
         <v>450</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B93" t="n">
         <v>450</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B94" t="n">
         <v>450</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B95" t="n">
         <v>450</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B96" t="n">
         <v>450</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B97" t="n">
         <v>450</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B98" t="n">
         <v>450</v>
@@ -5375,29 +5375,39 @@
       <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>365.1735271977754</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6299.66700273487</v>
+      </c>
+      <c r="M98" t="n">
+        <v>851.7714362324064</v>
+      </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>6333.450789637023</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>854.5132017764238</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B99" t="n">
         <v>450</v>
@@ -5447,7 +5457,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B100" t="n">
         <v>450</v>
@@ -5497,7 +5507,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B101" t="n">
         <v>450</v>
@@ -5525,29 +5535,39 @@
       <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>366.7537835322939</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6315.088338827873</v>
+      </c>
+      <c r="M101" t="n">
+        <v>876.9215079575933</v>
+      </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>6361.725123519332</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>942.4777960769379</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B102" t="n">
         <v>450</v>
@@ -5597,7 +5617,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B103" t="n">
         <v>450</v>
@@ -5647,7 +5667,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B104" t="n">
         <v>450</v>
@@ -5675,29 +5695,39 @@
       <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>368.3525344062674</v>
+      </c>
+      <c r="L104" t="n">
+        <v>6330.747088777807</v>
+      </c>
+      <c r="M104" t="n">
+        <v>902.3089935397123</v>
+      </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>6333.450789637023</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>904.7786842338604</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B105" t="n">
         <v>450</v>
@@ -5747,7 +5777,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B106" t="n">
         <v>450</v>
@@ -5797,7 +5827,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B107" t="n">
         <v>450</v>
@@ -5825,29 +5855,39 @@
       <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>371.6067596299724</v>
+      </c>
+      <c r="L107" t="n">
+        <v>6362.792746261222</v>
+      </c>
+      <c r="M107" t="n">
+        <v>953.8121222874935</v>
+      </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>6433.981754551896</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1005.309649148734</v>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B108" t="n">
         <v>450</v>
@@ -5897,7 +5937,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B109" t="n">
         <v>450</v>
@@ -5947,7 +5987,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B110" t="n">
         <v>450</v>
@@ -5975,29 +6015,39 @@
       <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>374.9387526321182</v>
+      </c>
+      <c r="L110" t="n">
+        <v>6395.836706420383</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1006.313553711024</v>
+      </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>6597.344572538565</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1256.637061435917</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B111" t="n">
         <v>450</v>
@@ -6047,7 +6097,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B112" t="n">
         <v>450</v>
@@ -6097,7 +6147,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B113" t="n">
         <v>450</v>
@@ -6125,29 +6175,39 @@
       <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>379.2171784398508</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6438.597812653356</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1073.396499024456</v>
+      </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>6872.233929727672</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1472.621556370216</v>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B114" t="n">
         <v>450</v>
@@ -6197,7 +6257,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B115" t="n">
         <v>450</v>
@@ -6247,7 +6307,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B116" t="n">
         <v>450</v>
@@ -6275,29 +6335,39 @@
       <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>381.8468305652734</v>
+      </c>
+      <c r="L116" t="n">
+        <v>6465.058027622704</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1114.44981744208</v>
+      </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>6773.273761139593</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>1231.504320207199</v>
       </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B117" t="n">
         <v>450</v>
@@ -6347,7 +6417,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B118" t="n">
         <v>450</v>
@@ -6397,7 +6467,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B119" t="n">
         <v>450</v>
@@ -6447,7 +6517,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B120" t="n">
         <v>450</v>
@@ -6497,7 +6567,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B121" t="n">
         <v>450</v>
@@ -6547,7 +6617,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B122" t="n">
         <v>450</v>
@@ -6581,25 +6651,25 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>402.5757536470541</v>
+        <v>353.6850432645404</v>
       </c>
       <c r="L122" t="n">
-        <v>7024.283848022084</v>
+        <v>6395.868547475636</v>
       </c>
       <c r="M122" t="n">
-        <v>895.401335706812</v>
+        <v>266.986035160364</v>
       </c>
       <c r="N122" t="n">
-        <v>7037.167544041136</v>
+        <v>6433.981754551896</v>
       </c>
       <c r="O122" t="n">
-        <v>904.7786842338604</v>
+        <v>301.5928947446201</v>
       </c>
       <c r="P122" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q122" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="R122" t="b">
         <v>0</v>
@@ -6607,7 +6677,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B123" t="n">
         <v>450</v>
@@ -6635,29 +6705,39 @@
       <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>374.1570201064495</v>
+      </c>
+      <c r="L123" t="n">
+        <v>6582.390703496984</v>
+      </c>
+      <c r="M123" t="n">
+        <v>606.7357773886082</v>
+      </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>6584.778201924207</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>653.451271946677</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B124" t="n">
         <v>450</v>
@@ -6685,29 +6765,39 @@
       <c r="I124" t="n">
         <v>3</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>396.0747973903654</v>
+      </c>
+      <c r="L124" t="n">
+        <v>6787.496412757492</v>
+      </c>
+      <c r="M124" t="n">
+        <v>965.0690728560137</v>
+      </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>6836.10561421139</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>1005.309649148734</v>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B125" t="n">
         <v>450</v>
@@ -6741,25 +6831,25 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>404.3243968540149</v>
+        <v>355.1650561946742</v>
       </c>
       <c r="L125" t="n">
-        <v>7041.287567994544</v>
+        <v>6409.419436126413</v>
       </c>
       <c r="M125" t="n">
-        <v>923.3498832654788</v>
+        <v>291.4817513973469</v>
       </c>
       <c r="N125" t="n">
-        <v>7068.583470577035</v>
+        <v>6440.264939859077</v>
       </c>
       <c r="O125" t="n">
-        <v>942.4777960769379</v>
+        <v>314.1592653589793</v>
       </c>
       <c r="P125" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q125" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R125" t="b">
         <v>0</v>
@@ -6767,7 +6857,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B126" t="n">
         <v>450</v>
@@ -6795,29 +6885,39 @@
       <c r="I126" t="n">
         <v>2</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>377.3419676219489</v>
+      </c>
+      <c r="L126" t="n">
+        <v>6612.383504644702</v>
+      </c>
+      <c r="M126" t="n">
+        <v>658.6182337087401</v>
+      </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>6675.88438887831</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>706.8583470577034</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B127" t="n">
         <v>450</v>
@@ -6845,29 +6945,39 @@
       <c r="I127" t="n">
         <v>3</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>401.2202707867123</v>
+      </c>
+      <c r="L127" t="n">
+        <v>6837.21636156259</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1047.623504419731</v>
+      </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>6911.503837897545</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>1099.557428756428</v>
       </c>
       <c r="P127" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B128" t="n">
         <v>450</v>
@@ -6901,25 +7011,25 @@
         </is>
       </c>
       <c r="K128" t="n">
-        <v>406.0935228797686</v>
+        <v>356.6625836532491</v>
       </c>
       <c r="L128" t="n">
-        <v>7058.554563272824</v>
+        <v>6423.195447250723</v>
       </c>
       <c r="M128" t="n">
-        <v>951.561706129965</v>
+        <v>316.2025901078655</v>
       </c>
       <c r="N128" t="n">
-        <v>7125.132138341651</v>
+        <v>6446.548125166256</v>
       </c>
       <c r="O128" t="n">
-        <v>1017.876019763093</v>
+        <v>339.2920065876976</v>
       </c>
       <c r="P128" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q128" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R128" t="b">
         <v>0</v>
@@ -6927,7 +7037,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B129" t="n">
         <v>450</v>
@@ -6955,29 +7065,39 @@
       <c r="I129" t="n">
         <v>2</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>380.5820813230582</v>
+      </c>
+      <c r="L129" t="n">
+        <v>6643.085382728281</v>
+      </c>
+      <c r="M129" t="n">
+        <v>711.2097669647333</v>
+      </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>6672.74279622472</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>791.6813487046279</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q129" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B130" t="n">
         <v>450</v>
@@ -7005,29 +7125,39 @@
       <c r="I130" t="n">
         <v>3</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>406.4864611825425</v>
+      </c>
+      <c r="L130" t="n">
+        <v>6888.487942751792</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1131.729568367554</v>
+      </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>6898.937467283185</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1244.070690821558</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B131" t="n">
         <v>450</v>
@@ -7061,25 +7191,25 @@
         </is>
       </c>
       <c r="K131" t="n">
-        <v>409.6945965375168</v>
+        <v>359.711356314053</v>
       </c>
       <c r="L131" t="n">
-        <v>7093.896029488008</v>
+        <v>6451.437928929349</v>
       </c>
       <c r="M131" t="n">
-        <v>1008.792827517564</v>
+        <v>366.3347269589044</v>
       </c>
       <c r="N131" t="n">
-        <v>7238.229473870883</v>
+        <v>6635.043684381643</v>
       </c>
       <c r="O131" t="n">
-        <v>1206.371578978481</v>
+        <v>402.1238596594935</v>
       </c>
       <c r="P131" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q131" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R131" t="b">
         <v>0</v>
@@ -7087,7 +7217,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B132" t="n">
         <v>450</v>
@@ -7115,29 +7245,39 @@
       <c r="I132" t="n">
         <v>2</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>387.2336484076417</v>
+      </c>
+      <c r="L132" t="n">
+        <v>6706.691448437402</v>
+      </c>
+      <c r="M132" t="n">
+        <v>818.5951430186815</v>
+      </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>6836.10561421139</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>1005.309649148734</v>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B133" t="n">
         <v>450</v>
@@ -7187,7 +7327,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B134" t="n">
         <v>450</v>
@@ -7221,25 +7361,25 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>413.3817984991137</v>
+        <v>362.8337759002437</v>
       </c>
       <c r="L134" t="n">
-        <v>7130.344543310503</v>
+        <v>6480.627029186208</v>
       </c>
       <c r="M134" t="n">
-        <v>1067.130996512472</v>
+        <v>417.4134823881781</v>
       </c>
       <c r="N134" t="n">
-        <v>7225.663103256525</v>
+        <v>6597.344572538565</v>
       </c>
       <c r="O134" t="n">
-        <v>1256.637061435917</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R134" t="b">
         <v>0</v>
@@ -7247,7 +7387,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B135" t="n">
         <v>450</v>
@@ -7275,29 +7415,39 @@
       <c r="I135" t="n">
         <v>2</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>394.1239282632642</v>
+      </c>
+      <c r="L135" t="n">
+        <v>6773.365801692013</v>
+      </c>
+      <c r="M135" t="n">
+        <v>929.0488066181206</v>
+      </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>6911.503837897545</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>942.4777960769379</v>
       </c>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B136" t="n">
         <v>450</v>
@@ -7347,7 +7497,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B137" t="n">
         <v>450</v>
@@ -7381,25 +7531,25 @@
         </is>
       </c>
       <c r="K137" t="n">
-        <v>418.1164304344279</v>
+        <v>366.8442241307029</v>
       </c>
       <c r="L137" t="n">
-        <v>7177.519960438465</v>
+        <v>6518.49417247285</v>
       </c>
       <c r="M137" t="n">
-        <v>1141.668482605951</v>
+        <v>482.6426946403354</v>
       </c>
       <c r="N137" t="n">
-        <v>7363.107781851078</v>
+        <v>6872.233929727672</v>
       </c>
       <c r="O137" t="n">
-        <v>1472.621556370216</v>
+        <v>490.8738521234052</v>
       </c>
       <c r="P137" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R137" t="b">
         <v>0</v>
@@ -7407,7 +7557,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B138" t="n">
         <v>450</v>
@@ -7435,29 +7585,39 @@
       <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>407.3892763776297</v>
+      </c>
+      <c r="L138" t="n">
+        <v>6902.828458068487</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1140.597669891146</v>
+      </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>1472.621556370216</v>
       </c>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B139" t="n">
         <v>450</v>
@@ -7507,7 +7667,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B140" t="n">
         <v>450</v>
@@ -7541,25 +7701,25 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>421.0265357690695</v>
+        <v>369.3097727632892</v>
       </c>
       <c r="L140" t="n">
-        <v>7206.716292636235</v>
+        <v>6541.976408243172</v>
       </c>
       <c r="M140" t="n">
-        <v>1187.282056183033</v>
+        <v>522.5421717899694</v>
       </c>
       <c r="N140" t="n">
-        <v>7389.025921243193</v>
+        <v>6773.273761139593</v>
       </c>
       <c r="O140" t="n">
-        <v>1231.504320207199</v>
+        <v>615.7521601035994</v>
       </c>
       <c r="P140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R140" t="b">
         <v>0</v>
@@ -7567,7 +7727,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B141" t="n">
         <v>450</v>
@@ -7617,7 +7777,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B142" t="n">
         <v>450</v>
@@ -7667,7 +7827,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B143" t="n">
         <v>450</v>
@@ -7701,25 +7861,25 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>424.9903946644872</v>
+        <v>372.6687572375866</v>
       </c>
       <c r="L143" t="n">
-        <v>7246.720808178791</v>
+        <v>6574.206188295751</v>
       </c>
       <c r="M143" t="n">
-        <v>1249.176226898001</v>
+        <v>576.6616070149604</v>
       </c>
       <c r="N143" t="n">
-        <v>8042.47719318987</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O143" t="n">
-        <v>1608.495438637974</v>
+        <v>804.247719318987</v>
       </c>
       <c r="P143" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R143" t="b">
         <v>0</v>
@@ -7727,7 +7887,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B144" t="n">
         <v>450</v>
@@ -7777,7 +7937,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B145" t="n">
         <v>450</v>
@@ -7827,7 +7987,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B146" t="n">
         <v>450</v>
@@ -7857,29 +8017,29 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K146" t="n">
-        <v>391.0732865693976</v>
+        <v>346.162974532311</v>
       </c>
       <c r="L146" t="n">
-        <v>7120.485392762851</v>
+        <v>6275.108739570424</v>
       </c>
       <c r="M146" t="n">
-        <v>310.6159346347703</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>7137.69850895601</v>
+        <v>6283.185307179586</v>
       </c>
       <c r="O146" t="n">
-        <v>351.8583772020568</v>
+        <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q146" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R146" t="b">
         <v>0</v>
@@ -7887,7 +8047,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B147" t="n">
         <v>450</v>
@@ -7921,25 +8081,25 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>413.8338461218644</v>
+        <v>363.0639597582281</v>
       </c>
       <c r="L147" t="n">
-        <v>7328.287650350184</v>
+        <v>6674.878559441093</v>
       </c>
       <c r="M147" t="n">
-        <v>688.6710657853224</v>
+        <v>35.26197487623156</v>
       </c>
       <c r="N147" t="n">
-        <v>7338.760438785756</v>
+        <v>6685.30916683908</v>
       </c>
       <c r="O147" t="n">
-        <v>703.7167544041137</v>
+        <v>50.26548245743669</v>
       </c>
       <c r="P147" t="n">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q147" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R147" t="b">
         <v>0</v>
@@ -7947,7 +8107,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B148" t="n">
         <v>450</v>
@@ -7981,25 +8141,25 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>438.2023608193184</v>
+        <v>385.3295797542295</v>
       </c>
       <c r="L148" t="n">
-        <v>7556.784311347904</v>
+        <v>6876.310938566838</v>
       </c>
       <c r="M148" t="n">
-        <v>1087.420600346261</v>
+        <v>406.9472275651959</v>
       </c>
       <c r="N148" t="n">
-        <v>7590.08785107294</v>
+        <v>6886.371096668827</v>
       </c>
       <c r="O148" t="n">
-        <v>1105.840614063607</v>
+        <v>452.3893421169302</v>
       </c>
       <c r="P148" t="n">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="Q148" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R148" t="b">
         <v>0</v>
@@ -8007,7 +8167,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B149" t="n">
         <v>450</v>
@@ -8037,29 +8197,29 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>392.7215935691346</v>
+        <v>347.237893924418</v>
       </c>
       <c r="L149" t="n">
-        <v>7135.618665293083</v>
+        <v>6302.777192391711</v>
       </c>
       <c r="M149" t="n">
-        <v>337.9101267052337</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>7147.12328691678</v>
+        <v>6361.725123519332</v>
       </c>
       <c r="O149" t="n">
-        <v>392.6990816987242</v>
+        <v>0</v>
       </c>
       <c r="P149" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q149" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R149" t="b">
         <v>0</v>
@@ -8067,7 +8227,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B150" t="n">
         <v>450</v>
@@ -8101,25 +8261,25 @@
         </is>
       </c>
       <c r="K150" t="n">
-        <v>417.3778262328109</v>
+        <v>366.1715225078826</v>
       </c>
       <c r="L150" t="n">
-        <v>7361.737800448905</v>
+        <v>6702.712012483289</v>
       </c>
       <c r="M150" t="n">
-        <v>746.443054964504</v>
+        <v>87.41726699888801</v>
       </c>
       <c r="N150" t="n">
-        <v>7382.742735936014</v>
+        <v>6754.424205218055</v>
       </c>
       <c r="O150" t="n">
-        <v>785.3981633974483</v>
+        <v>157.0796326794897</v>
       </c>
       <c r="P150" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q150" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R150" t="b">
         <v>0</v>
@@ -8127,7 +8287,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B151" t="n">
         <v>450</v>
@@ -8161,25 +8321,25 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>443.9262761709914</v>
+        <v>390.4202881470392</v>
       </c>
       <c r="L151" t="n">
-        <v>7612.209796280456</v>
+        <v>6923.587041789437</v>
       </c>
       <c r="M151" t="n">
-        <v>1179.328843899502</v>
+        <v>490.7060894084842</v>
       </c>
       <c r="N151" t="n">
-        <v>7618.362184955248</v>
+        <v>6990.04365423729</v>
       </c>
       <c r="O151" t="n">
-        <v>1256.637061435917</v>
+        <v>549.7787143782139</v>
       </c>
       <c r="P151" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q151" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R151" t="b">
         <v>0</v>
@@ -8187,7 +8347,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B152" t="n">
         <v>450</v>
@@ -8217,29 +8377,29 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>394.389402019644</v>
+        <v>348.3277917484209</v>
       </c>
       <c r="L152" t="n">
-        <v>7151.00292174574</v>
+        <v>6330.831190435544</v>
       </c>
       <c r="M152" t="n">
-        <v>365.4553026981199</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>7238.229473870883</v>
+        <v>6333.450789637023</v>
       </c>
       <c r="O152" t="n">
-        <v>452.3893421169302</v>
+        <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Q152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R152" t="b">
         <v>0</v>
@@ -8247,7 +8407,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B153" t="n">
         <v>450</v>
@@ -8281,25 +8441,25 @@
         </is>
       </c>
       <c r="K153" t="n">
-        <v>420.9831914954671</v>
+        <v>369.332902478126</v>
       </c>
       <c r="L153" t="n">
-        <v>7395.977978240157</v>
+        <v>6731.238093847094</v>
       </c>
       <c r="M153" t="n">
-        <v>805.0050718362157</v>
+        <v>140.2651874431522</v>
       </c>
       <c r="N153" t="n">
-        <v>7464.424144929349</v>
+        <v>6785.840131753953</v>
       </c>
       <c r="O153" t="n">
-        <v>904.7786842338604</v>
+        <v>226.1946710584651</v>
       </c>
       <c r="P153" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q153" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R153" t="b">
         <v>0</v>
@@ -8307,7 +8467,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B154" t="n">
         <v>450</v>
@@ -8341,25 +8501,25 @@
         </is>
       </c>
       <c r="K154" t="n">
-        <v>449.7844902400861</v>
+        <v>395.6299447855406</v>
       </c>
       <c r="L154" t="n">
-        <v>7669.363707434651</v>
+        <v>6972.394010464953</v>
       </c>
       <c r="M154" t="n">
-        <v>1272.965513674387</v>
+        <v>575.9958167046898</v>
       </c>
       <c r="N154" t="n">
-        <v>7690.618815987814</v>
+        <v>7012.034802812418</v>
       </c>
       <c r="O154" t="n">
-        <v>1357.168026350791</v>
+        <v>678.5840131753953</v>
       </c>
       <c r="P154" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q154" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R154" t="b">
         <v>0</v>
@@ -8367,7 +8527,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B155" t="n">
         <v>450</v>
@@ -8397,29 +8557,29 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>397.7848306328076</v>
+        <v>350.5542748066305</v>
       </c>
       <c r="L155" t="n">
-        <v>7182.541212156136</v>
+        <v>6388.140921663588</v>
       </c>
       <c r="M155" t="n">
-        <v>421.3154321889759</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>7238.229473870883</v>
+        <v>6433.981754551896</v>
       </c>
       <c r="O155" t="n">
-        <v>603.1857894892403</v>
+        <v>0</v>
       </c>
       <c r="P155" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R155" t="b">
         <v>0</v>
@@ -8427,7 +8587,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B156" t="n">
         <v>450</v>
@@ -8461,25 +8621,25 @@
         </is>
       </c>
       <c r="K156" t="n">
-        <v>428.3845770802072</v>
+        <v>375.8228123743249</v>
       </c>
       <c r="L156" t="n">
-        <v>7466.912066891231</v>
+        <v>6790.441478655936</v>
       </c>
       <c r="M156" t="n">
-        <v>924.5828386482088</v>
+        <v>248.1122504129147</v>
       </c>
       <c r="N156" t="n">
-        <v>7640.353333530376</v>
+        <v>6836.10561421139</v>
       </c>
       <c r="O156" t="n">
-        <v>1005.309649148734</v>
+        <v>402.1238596594935</v>
       </c>
       <c r="P156" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R156" t="b">
         <v>0</v>
@@ -8487,7 +8647,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B157" t="n">
         <v>450</v>
@@ -8515,29 +8675,39 @@
       <c r="I157" t="n">
         <v>3</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>406.4238342151255</v>
+      </c>
+      <c r="L157" t="n">
+        <v>7074.828747720517</v>
+      </c>
+      <c r="M157" t="n">
+        <v>751.3960712016327</v>
+      </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>804.247719318987</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B158" t="n">
         <v>450</v>
@@ -8567,29 +8737,29 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>401.2622609906823</v>
+        <v>352.8461391438794</v>
       </c>
       <c r="L158" t="n">
-        <v>7215.134866076327</v>
+        <v>6447.133568697026</v>
       </c>
       <c r="M158" t="n">
-        <v>478.2309251896264</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>7225.663103256525</v>
+        <v>6597.344572538565</v>
       </c>
       <c r="O158" t="n">
-        <v>628.3185307179587</v>
+        <v>0</v>
       </c>
       <c r="P158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R158" t="b">
         <v>0</v>
@@ -8597,7 +8767,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B159" t="n">
         <v>450</v>
@@ -8631,25 +8801,25 @@
         </is>
       </c>
       <c r="K159" t="n">
-        <v>436.0515858814752</v>
+        <v>382.5455978575231</v>
       </c>
       <c r="L159" t="n">
-        <v>7541.264729757591</v>
+        <v>6852.641975266574</v>
       </c>
       <c r="M159" t="n">
-        <v>1047.579179675489</v>
+        <v>358.9564251844713</v>
       </c>
       <c r="N159" t="n">
-        <v>7853.981633974483</v>
+        <v>6911.503837897545</v>
       </c>
       <c r="O159" t="n">
-        <v>1256.637061435917</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P159" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R159" t="b">
         <v>0</v>
@@ -8657,7 +8827,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B160" t="n">
         <v>450</v>
@@ -8685,29 +8855,39 @@
       <c r="I160" t="n">
         <v>3</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>417.7489696530433</v>
+      </c>
+      <c r="L160" t="n">
+        <v>7184.100627940468</v>
+      </c>
+      <c r="M160" t="n">
+        <v>933.6334686629635</v>
+      </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>7225.663103256525</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>942.4777960769379</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B161" t="n">
         <v>450</v>
@@ -8737,29 +8917,29 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>405.7286592909398</v>
+        <v>355.809176629216</v>
       </c>
       <c r="L161" t="n">
-        <v>7257.416320257958</v>
+        <v>6523.402229838251</v>
       </c>
       <c r="M161" t="n">
-        <v>550.9146782218314</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>7363.107781851078</v>
+        <v>6872.233929727672</v>
       </c>
       <c r="O161" t="n">
-        <v>981.7477042468104</v>
+        <v>0</v>
       </c>
       <c r="P161" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R161" t="b">
         <v>0</v>
@@ -8767,7 +8947,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B162" t="n">
         <v>450</v>
@@ -8801,25 +8981,25 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>450.8086146881999</v>
+        <v>395.6512072807925</v>
       </c>
       <c r="L162" t="n">
-        <v>7685.584432147427</v>
+        <v>6975.707888937551</v>
       </c>
       <c r="M162" t="n">
-        <v>1283.105778617049</v>
+        <v>573.229235407172</v>
       </c>
       <c r="N162" t="n">
-        <v>7853.981633974483</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O162" t="n">
-        <v>1472.621556370216</v>
+        <v>981.7477042468104</v>
       </c>
       <c r="P162" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R162" t="b">
         <v>0</v>
@@ -8827,7 +9007,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B163" t="n">
         <v>450</v>
@@ -8877,7 +9057,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B164" t="n">
         <v>450</v>
@@ -8907,29 +9087,29 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>408.4745029051493</v>
+        <v>357.6427807979686</v>
       </c>
       <c r="L164" t="n">
-        <v>7283.634673256704</v>
+        <v>6570.599248338961</v>
       </c>
       <c r="M164" t="n">
-        <v>595.3744105309229</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>7389.025921243193</v>
+        <v>6773.273761139593</v>
       </c>
       <c r="O164" t="n">
-        <v>615.7521601035994</v>
+        <v>0</v>
       </c>
       <c r="P164" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R164" t="b">
         <v>0</v>
@@ -8937,7 +9117,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B165" t="n">
         <v>450</v>
@@ -8965,29 +9145,39 @@
       <c r="I165" t="n">
         <v>2</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>403.8963201431525</v>
+      </c>
+      <c r="L165" t="n">
+        <v>7054.460528625315</v>
+      </c>
+      <c r="M165" t="n">
+        <v>706.706013025972</v>
+      </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>7389.025921243193</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>1231.504320207199</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B166" t="n">
         <v>450</v>
@@ -9037,7 +9227,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B167" t="n">
         <v>450</v>
@@ -9067,29 +9257,29 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K167" t="n">
-        <v>412.2153350745771</v>
+        <v>360.1570670590853</v>
       </c>
       <c r="L167" t="n">
-        <v>7319.618311881567</v>
+        <v>6635.317041417897</v>
       </c>
       <c r="M167" t="n">
-        <v>655.6798882362463</v>
+        <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>8042.47719318987</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O167" t="n">
-        <v>804.247719318987</v>
+        <v>0</v>
       </c>
       <c r="P167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R167" t="b">
         <v>0</v>
@@ -9097,7 +9287,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B168" t="n">
         <v>450</v>
@@ -9125,29 +9315,39 @@
       <c r="I168" t="n">
         <v>2</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>415.3696560957811</v>
+      </c>
+      <c r="L168" t="n">
+        <v>7165.639751376938</v>
+      </c>
+      <c r="M168" t="n">
+        <v>890.8507530189737</v>
+      </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>1608.495438637974</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B169" t="n">
         <v>450</v>
@@ -9197,7 +9397,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B170" t="n">
         <v>450</v>
@@ -9219,7 +9419,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>RZT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -9231,22 +9431,22 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>382.8078193329703</v>
+        <v>345.8436</v>
       </c>
       <c r="L170" t="n">
-        <v>7024.686065282738</v>
+        <v>6072</v>
       </c>
       <c r="M170" t="n">
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>7037.167544041136</v>
+        <v>6082.12337734984</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
       </c>
       <c r="P170" t="n">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
@@ -9257,7 +9457,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B171" t="n">
         <v>450</v>
@@ -9287,29 +9487,29 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K171" t="n">
-        <v>402.7233434592089</v>
+        <v>359.6781890150075</v>
       </c>
       <c r="L171" t="n">
-        <v>7420.775506294292</v>
+        <v>6428.561572551741</v>
       </c>
       <c r="M171" t="n">
-        <v>117.1972632729466</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>7439.29140370063</v>
+        <v>6433.981754551896</v>
       </c>
       <c r="O171" t="n">
-        <v>150.7964473723101</v>
+        <v>0</v>
       </c>
       <c r="P171" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Q171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R171" t="b">
         <v>0</v>
@@ -9317,7 +9517,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B172" t="n">
         <v>450</v>
@@ -9347,29 +9547,29 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K172" t="n">
-        <v>427.4360265778526</v>
+        <v>376.3115838175949</v>
       </c>
       <c r="L172" t="n">
-        <v>7645.598837157251</v>
+        <v>6857.257314886465</v>
       </c>
       <c r="M172" t="n">
-        <v>529.2987550554441</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>7690.618815987814</v>
+        <v>6886.371096668827</v>
       </c>
       <c r="O172" t="n">
-        <v>552.9203070318035</v>
+        <v>0</v>
       </c>
       <c r="P172" t="n">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="Q172" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R172" t="b">
         <v>0</v>
@@ -9377,7 +9577,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B173" t="n">
         <v>450</v>
@@ -9399,7 +9599,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>RZT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -9411,22 +9611,22 @@
         </is>
       </c>
       <c r="K173" t="n">
-        <v>384.0340556735695</v>
+        <v>346.7589654087161</v>
       </c>
       <c r="L173" t="n">
-        <v>7056.290094679625</v>
+        <v>6095.591891977218</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>7068.583470577035</v>
+        <v>6126.105674500097</v>
       </c>
       <c r="O173" t="n">
         <v>0</v>
       </c>
       <c r="P173" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Q173" t="n">
         <v>0</v>
@@ -9437,7 +9637,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B174" t="n">
         <v>450</v>
@@ -9467,29 +9667,29 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K174" t="n">
-        <v>406.1895657858351</v>
+        <v>361.8584124811033</v>
       </c>
       <c r="L174" t="n">
-        <v>7452.066308287492</v>
+        <v>6484.752898997508</v>
       </c>
       <c r="M174" t="n">
-        <v>175.2420882546503</v>
+        <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>7461.282552275759</v>
+        <v>6518.804756198821</v>
       </c>
       <c r="O174" t="n">
-        <v>235.6194490192345</v>
+        <v>0</v>
       </c>
       <c r="P174" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R174" t="b">
         <v>0</v>
@@ -9497,7 +9697,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B175" t="n">
         <v>450</v>
@@ -9527,29 +9727,29 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K175" t="n">
-        <v>433.1044859293477</v>
+        <v>380.3610993758844</v>
       </c>
       <c r="L175" t="n">
-        <v>7698.580476507304</v>
+        <v>6961.62627257434</v>
       </c>
       <c r="M175" t="n">
-        <v>622.4114288882555</v>
+        <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>7775.441817634738</v>
+        <v>6990.04365423729</v>
       </c>
       <c r="O175" t="n">
-        <v>628.3185307179587</v>
+        <v>0</v>
       </c>
       <c r="P175" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Q175" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R175" t="b">
         <v>0</v>
@@ -9557,7 +9757,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B176" t="n">
         <v>450</v>
@@ -9591,22 +9791,22 @@
         </is>
       </c>
       <c r="K176" t="n">
-        <v>385.2779770932515</v>
+        <v>347.6839603908091</v>
       </c>
       <c r="L176" t="n">
-        <v>7088.3499250838</v>
+        <v>6119.431968835288</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>7125.132138341651</v>
+        <v>6220.353454107791</v>
       </c>
       <c r="O176" t="n">
         <v>0</v>
       </c>
       <c r="P176" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
@@ -9617,7 +9817,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B177" t="n">
         <v>450</v>
@@ -9647,29 +9847,29 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K177" t="n">
-        <v>409.715817848936</v>
+        <v>364.0978312950095</v>
       </c>
       <c r="L177" t="n">
-        <v>7484.130689358972</v>
+        <v>6542.46987873736</v>
       </c>
       <c r="M177" t="n">
-        <v>234.0604923146354</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>7577.521480458581</v>
+        <v>6559.645460695488</v>
       </c>
       <c r="O177" t="n">
-        <v>339.2920065876976</v>
+        <v>0</v>
       </c>
       <c r="P177" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R177" t="b">
         <v>0</v>
@@ -9677,7 +9877,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B178" t="n">
         <v>450</v>
@@ -9711,25 +9911,25 @@
         </is>
       </c>
       <c r="K178" t="n">
-        <v>438.9054596417822</v>
+        <v>384.8206111569338</v>
       </c>
       <c r="L178" t="n">
-        <v>7753.269775147813</v>
+        <v>7056.300078178116</v>
       </c>
       <c r="M178" t="n">
-        <v>717.2317620115232</v>
+        <v>20.2620650418262</v>
       </c>
       <c r="N178" t="n">
-        <v>7803.716151517046</v>
+        <v>7125.132138341651</v>
       </c>
       <c r="O178" t="n">
-        <v>791.6813487046279</v>
+        <v>113.0973355292326</v>
       </c>
       <c r="P178" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R178" t="b">
         <v>0</v>
@@ -9737,7 +9937,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B179" t="n">
         <v>450</v>
@@ -9771,22 +9971,22 @@
         </is>
       </c>
       <c r="K179" t="n">
-        <v>387.8210329174704</v>
+        <v>349.5657013025797</v>
       </c>
       <c r="L179" t="n">
-        <v>7153.892600965733</v>
+        <v>6167.930445942773</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>7238.229473870883</v>
+        <v>6232.919824722149</v>
       </c>
       <c r="O179" t="n">
         <v>0</v>
       </c>
       <c r="P179" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q179" t="n">
         <v>0</v>
@@ -9797,7 +9997,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B180" t="n">
         <v>450</v>
@@ -9827,29 +10027,29 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>416.9547672743056</v>
+        <v>368.7679307067053</v>
       </c>
       <c r="L180" t="n">
-        <v>7550.662097109765</v>
+        <v>6662.833265636736</v>
       </c>
       <c r="M180" t="n">
-        <v>354.099946042442</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>7640.353333530376</v>
+        <v>6836.10561421139</v>
       </c>
       <c r="O180" t="n">
-        <v>402.1238596594935</v>
+        <v>0</v>
       </c>
       <c r="P180" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R180" t="b">
         <v>0</v>
@@ -9857,7 +10057,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B181" t="n">
         <v>450</v>
@@ -9891,25 +10091,25 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>450.924703843026</v>
+        <v>395.4961324144546</v>
       </c>
       <c r="L181" t="n">
-        <v>7868.025908206855</v>
+        <v>7153.74019392114</v>
       </c>
       <c r="M181" t="n">
-        <v>912.2499640360833</v>
+        <v>197.9642497503689</v>
       </c>
       <c r="N181" t="n">
-        <v>8042.47719318987</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O181" t="n">
-        <v>1005.309649148734</v>
+        <v>201.0619298297468</v>
       </c>
       <c r="P181" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q181" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R181" t="b">
         <v>0</v>
@@ -9917,7 +10117,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B182" t="n">
         <v>450</v>
@@ -9951,22 +10151,22 @@
         </is>
       </c>
       <c r="K182" t="n">
-        <v>390.4415745394846</v>
+        <v>351.4914301703591</v>
       </c>
       <c r="L182" t="n">
-        <v>7221.432333491871</v>
+        <v>6217.562633256678</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>7225.663103256525</v>
+        <v>6283.185307179587</v>
       </c>
       <c r="O182" t="n">
         <v>0</v>
       </c>
       <c r="P182" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
@@ -9977,7 +10177,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B183" t="n">
         <v>450</v>
@@ -10007,29 +10207,29 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K183" t="n">
-        <v>424.453474821071</v>
+        <v>373.7191964832963</v>
       </c>
       <c r="L183" t="n">
-        <v>7620.540903332153</v>
+        <v>6790.443208332378</v>
       </c>
       <c r="M183" t="n">
-        <v>477.4867982418415</v>
+        <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>7853.981633974483</v>
+        <v>6911.503837897545</v>
       </c>
       <c r="O183" t="n">
-        <v>628.3185307179587</v>
+        <v>0</v>
       </c>
       <c r="P183" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R183" t="b">
         <v>0</v>
@@ -10037,7 +10237,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B184" t="n">
         <v>450</v>
@@ -10071,25 +10271,25 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>463.5357829627797</v>
+        <v>406.6950186315695</v>
       </c>
       <c r="L184" t="n">
-        <v>7990.408779906489</v>
+        <v>7257.924703473368</v>
       </c>
       <c r="M184" t="n">
-        <v>1114.894904701236</v>
+        <v>382.4108282681146</v>
       </c>
       <c r="N184" t="n">
-        <v>8168.140899333463</v>
+        <v>7539.822368615503</v>
       </c>
       <c r="O184" t="n">
-        <v>1256.637061435917</v>
+        <v>628.3185307179587</v>
       </c>
       <c r="P184" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R184" t="b">
         <v>0</v>
@@ -10097,7 +10297,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B185" t="n">
         <v>450</v>
@@ -10131,22 +10331,22 @@
         </is>
       </c>
       <c r="K185" t="n">
-        <v>393.8339878083719</v>
+        <v>353.9636237725747</v>
       </c>
       <c r="L185" t="n">
-        <v>7308.865665164223</v>
+        <v>6281.27896321069</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>7363.107781851078</v>
+        <v>6381.360077604268</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
       </c>
       <c r="P185" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q185" t="n">
         <v>0</v>
@@ -10157,7 +10357,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B186" t="n">
         <v>450</v>
@@ -10191,25 +10391,25 @@
         </is>
       </c>
       <c r="K186" t="n">
-        <v>439.049006837403</v>
+        <v>383.9625870843166</v>
       </c>
       <c r="L186" t="n">
-        <v>7758.463863016489</v>
+        <v>7048.587319806612</v>
       </c>
       <c r="M186" t="n">
-        <v>715.7373441330734</v>
+        <v>5.860800923196843</v>
       </c>
       <c r="N186" t="n">
-        <v>7853.981633974483</v>
+        <v>7363.107781851078</v>
       </c>
       <c r="O186" t="n">
-        <v>981.7477042468104</v>
+        <v>490.8738521234052</v>
       </c>
       <c r="P186" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R186" t="b">
         <v>0</v>
@@ -10217,7 +10417,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B187" t="n">
         <v>450</v>
@@ -10245,21 +10445,31 @@
       <c r="I187" t="n">
         <v>3</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>431.549629466787</v>
+      </c>
+      <c r="L187" t="n">
+        <v>7494.609758376781</v>
+      </c>
+      <c r="M187" t="n">
+        <v>786.3085268496861</v>
+      </c>
       <c r="N187" t="n">
-        <v>0</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>981.7477042468104</v>
       </c>
       <c r="P187" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R187" t="b">
         <v>1</v>
@@ -10267,7 +10477,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B188" t="n">
         <v>450</v>
@@ -10297,29 +10507,29 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K188" t="n">
-        <v>395.9739689677323</v>
+        <v>355.4833062656789</v>
       </c>
       <c r="L188" t="n">
-        <v>7360.553053877172</v>
+        <v>6320.446037775228</v>
       </c>
       <c r="M188" t="n">
-        <v>3.46676487881431</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>7389.025921243193</v>
+        <v>6773.273761139593</v>
       </c>
       <c r="O188" t="n">
-        <v>615.7521601035994</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R188" t="b">
         <v>0</v>
@@ -10327,7 +10537,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B189" t="n">
         <v>450</v>
@@ -10361,25 +10571,25 @@
         </is>
       </c>
       <c r="K189" t="n">
-        <v>448.2316823372996</v>
+        <v>392.1058961737776</v>
       </c>
       <c r="L189" t="n">
-        <v>7846.699034318036</v>
+        <v>7123.428594066464</v>
       </c>
       <c r="M189" t="n">
-        <v>864.1690671587581</v>
+        <v>140.8986269071859</v>
       </c>
       <c r="N189" t="n">
-        <v>8004.778081346793</v>
+        <v>7389.025921243193</v>
       </c>
       <c r="O189" t="n">
-        <v>1231.504320207199</v>
+        <v>615.7521601035994</v>
       </c>
       <c r="P189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R189" t="b">
         <v>0</v>
@@ -10387,7 +10597,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B190" t="n">
         <v>450</v>
@@ -10415,21 +10625,31 @@
       <c r="I190" t="n">
         <v>3</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2r</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>447.6142685113359</v>
+      </c>
+      <c r="L190" t="n">
+        <v>7651.46450966185</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1043.490864341653</v>
+      </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>8004.778081346793</v>
       </c>
       <c r="O190" t="n">
-        <v>0</v>
+        <v>1231.504320207199</v>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R190" t="b">
         <v>1</v>
@@ -10437,7 +10657,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B191" t="n">
         <v>450</v>
@@ -10467,29 +10687,29 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>2r</t>
+          <t>1r</t>
         </is>
       </c>
       <c r="K191" t="n">
-        <v>399.4923353681629</v>
+        <v>357.5540943189577</v>
       </c>
       <c r="L191" t="n">
-        <v>7392.515815584345</v>
+        <v>6373.816863890663</v>
       </c>
       <c r="M191" t="n">
-        <v>62.18354957449213</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>8042.47719318987</v>
+        <v>6433.981754551896</v>
       </c>
       <c r="O191" t="n">
-        <v>804.247719318987</v>
+        <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R191" t="b">
         <v>0</v>
@@ -10497,7 +10717,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B192" t="n">
         <v>450</v>
@@ -10531,25 +10751,25 @@
         </is>
       </c>
       <c r="K192" t="n">
-        <v>461.0099179534241</v>
+        <v>403.4357244050369</v>
       </c>
       <c r="L192" t="n">
-        <v>7971.235984579148</v>
+        <v>7229.30050070818</v>
       </c>
       <c r="M192" t="n">
-        <v>1068.968086385388</v>
+        <v>327.03260251442</v>
       </c>
       <c r="N192" t="n">
-        <v>8042.47719318987</v>
+        <v>7238.229473870883</v>
       </c>
       <c r="O192" t="n">
-        <v>1608.495438637974</v>
+        <v>804.247719318987</v>
       </c>
       <c r="P192" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R192" t="b">
         <v>0</v>
@@ -10557,7 +10777,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="B193" t="n">
         <v>450</v>
